--- a/sequences/01_retrieval_1.xlsx
+++ b/sequences/01_retrieval_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1856,6 +1856,30 @@
       <c r="F2" t="s">
         <v>205</v>
       </c>
+      <c r="G2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N2" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
@@ -1964,6 +1988,30 @@
       <c r="F5" t="s">
         <v>205</v>
       </c>
+      <c r="G5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M5" t="s">
+        <v>205</v>
+      </c>
+      <c r="N5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
@@ -2072,6 +2120,30 @@
       <c r="F8" t="s">
         <v>205</v>
       </c>
+      <c r="G8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N8" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
@@ -2092,6 +2164,30 @@
       <c r="F9" t="s">
         <v>205</v>
       </c>
+      <c r="G9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" t="s">
+        <v>205</v>
+      </c>
+      <c r="K9" t="s">
+        <v>205</v>
+      </c>
+      <c r="L9" t="s">
+        <v>205</v>
+      </c>
+      <c r="M9" t="s">
+        <v>205</v>
+      </c>
+      <c r="N9" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
@@ -2200,6 +2296,30 @@
       <c r="F12" t="s">
         <v>205</v>
       </c>
+      <c r="G12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" t="s">
+        <v>205</v>
+      </c>
+      <c r="I12" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" t="s">
+        <v>205</v>
+      </c>
+      <c r="K12" t="s">
+        <v>205</v>
+      </c>
+      <c r="L12" t="s">
+        <v>205</v>
+      </c>
+      <c r="M12" t="s">
+        <v>205</v>
+      </c>
+      <c r="N12" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
@@ -2264,6 +2384,30 @@
       <c r="F14" t="s">
         <v>205</v>
       </c>
+      <c r="G14" t="s">
+        <v>205</v>
+      </c>
+      <c r="H14" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K14" t="s">
+        <v>205</v>
+      </c>
+      <c r="L14" t="s">
+        <v>205</v>
+      </c>
+      <c r="M14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N14" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
@@ -2328,6 +2472,30 @@
       <c r="F16" t="s">
         <v>205</v>
       </c>
+      <c r="G16" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" t="s">
+        <v>205</v>
+      </c>
+      <c r="I16" t="s">
+        <v>205</v>
+      </c>
+      <c r="J16" t="s">
+        <v>205</v>
+      </c>
+      <c r="K16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L16" t="s">
+        <v>205</v>
+      </c>
+      <c r="M16" t="s">
+        <v>205</v>
+      </c>
+      <c r="N16" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
@@ -2524,6 +2692,30 @@
       <c r="F21" t="s">
         <v>205</v>
       </c>
+      <c r="G21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" t="s">
+        <v>205</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" t="s">
+        <v>205</v>
+      </c>
+      <c r="N21" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
@@ -2544,6 +2736,30 @@
       <c r="F22" t="s">
         <v>205</v>
       </c>
+      <c r="G22" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22" t="s">
+        <v>205</v>
+      </c>
+      <c r="I22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" t="s">
+        <v>205</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
@@ -2652,6 +2868,30 @@
       <c r="F25" t="s">
         <v>205</v>
       </c>
+      <c r="G25" t="s">
+        <v>205</v>
+      </c>
+      <c r="H25" t="s">
+        <v>205</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" t="s">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s">
+        <v>205</v>
+      </c>
+      <c r="M25" t="s">
+        <v>205</v>
+      </c>
+      <c r="N25" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
@@ -2804,6 +3044,30 @@
       <c r="F29" t="s">
         <v>205</v>
       </c>
+      <c r="G29" t="s">
+        <v>205</v>
+      </c>
+      <c r="H29" t="s">
+        <v>205</v>
+      </c>
+      <c r="I29" t="s">
+        <v>205</v>
+      </c>
+      <c r="J29" t="s">
+        <v>205</v>
+      </c>
+      <c r="K29" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" t="s">
+        <v>205</v>
+      </c>
+      <c r="M29" t="s">
+        <v>205</v>
+      </c>
+      <c r="N29" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
@@ -2824,6 +3088,30 @@
       <c r="F30" t="s">
         <v>205</v>
       </c>
+      <c r="G30" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I30" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" t="s">
+        <v>205</v>
+      </c>
+      <c r="M30" t="s">
+        <v>205</v>
+      </c>
+      <c r="N30" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
@@ -2888,6 +3176,30 @@
       <c r="F32" t="s">
         <v>205</v>
       </c>
+      <c r="G32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H32" t="s">
+        <v>205</v>
+      </c>
+      <c r="I32" t="s">
+        <v>205</v>
+      </c>
+      <c r="J32" t="s">
+        <v>205</v>
+      </c>
+      <c r="K32" t="s">
+        <v>205</v>
+      </c>
+      <c r="L32" t="s">
+        <v>205</v>
+      </c>
+      <c r="M32" t="s">
+        <v>205</v>
+      </c>
+      <c r="N32" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
@@ -2952,6 +3264,30 @@
       <c r="F34" t="s">
         <v>205</v>
       </c>
+      <c r="G34" t="s">
+        <v>205</v>
+      </c>
+      <c r="H34" t="s">
+        <v>205</v>
+      </c>
+      <c r="I34" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" t="s">
+        <v>205</v>
+      </c>
+      <c r="K34" t="s">
+        <v>205</v>
+      </c>
+      <c r="L34" t="s">
+        <v>205</v>
+      </c>
+      <c r="M34" t="s">
+        <v>205</v>
+      </c>
+      <c r="N34" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -3060,6 +3396,30 @@
       <c r="F37" t="s">
         <v>205</v>
       </c>
+      <c r="G37" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" t="s">
+        <v>205</v>
+      </c>
+      <c r="I37" t="s">
+        <v>205</v>
+      </c>
+      <c r="J37" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" t="s">
+        <v>205</v>
+      </c>
+      <c r="L37" t="s">
+        <v>205</v>
+      </c>
+      <c r="M37" t="s">
+        <v>205</v>
+      </c>
+      <c r="N37" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
@@ -3124,6 +3484,30 @@
       <c r="F39" t="s">
         <v>205</v>
       </c>
+      <c r="G39" t="s">
+        <v>205</v>
+      </c>
+      <c r="H39" t="s">
+        <v>205</v>
+      </c>
+      <c r="I39" t="s">
+        <v>205</v>
+      </c>
+      <c r="J39" t="s">
+        <v>205</v>
+      </c>
+      <c r="K39" t="s">
+        <v>205</v>
+      </c>
+      <c r="L39" t="s">
+        <v>205</v>
+      </c>
+      <c r="M39" t="s">
+        <v>205</v>
+      </c>
+      <c r="N39" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
@@ -3188,6 +3572,30 @@
       <c r="F41" t="s">
         <v>205</v>
       </c>
+      <c r="G41" t="s">
+        <v>205</v>
+      </c>
+      <c r="H41" t="s">
+        <v>205</v>
+      </c>
+      <c r="I41" t="s">
+        <v>205</v>
+      </c>
+      <c r="J41" t="s">
+        <v>205</v>
+      </c>
+      <c r="K41" t="s">
+        <v>205</v>
+      </c>
+      <c r="L41" t="s">
+        <v>205</v>
+      </c>
+      <c r="M41" t="s">
+        <v>205</v>
+      </c>
+      <c r="N41" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
@@ -3208,6 +3616,30 @@
       <c r="F42" t="s">
         <v>205</v>
       </c>
+      <c r="G42" t="s">
+        <v>205</v>
+      </c>
+      <c r="H42" t="s">
+        <v>205</v>
+      </c>
+      <c r="I42" t="s">
+        <v>205</v>
+      </c>
+      <c r="J42" t="s">
+        <v>205</v>
+      </c>
+      <c r="K42" t="s">
+        <v>205</v>
+      </c>
+      <c r="L42" t="s">
+        <v>205</v>
+      </c>
+      <c r="M42" t="s">
+        <v>205</v>
+      </c>
+      <c r="N42" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
@@ -3228,6 +3660,30 @@
       <c r="F43" t="s">
         <v>205</v>
       </c>
+      <c r="G43" t="s">
+        <v>205</v>
+      </c>
+      <c r="H43" t="s">
+        <v>205</v>
+      </c>
+      <c r="I43" t="s">
+        <v>205</v>
+      </c>
+      <c r="J43" t="s">
+        <v>205</v>
+      </c>
+      <c r="K43" t="s">
+        <v>205</v>
+      </c>
+      <c r="L43" t="s">
+        <v>205</v>
+      </c>
+      <c r="M43" t="s">
+        <v>205</v>
+      </c>
+      <c r="N43" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
@@ -3380,6 +3836,30 @@
       <c r="F47" t="s">
         <v>205</v>
       </c>
+      <c r="G47" t="s">
+        <v>205</v>
+      </c>
+      <c r="H47" t="s">
+        <v>205</v>
+      </c>
+      <c r="I47" t="s">
+        <v>205</v>
+      </c>
+      <c r="J47" t="s">
+        <v>205</v>
+      </c>
+      <c r="K47" t="s">
+        <v>205</v>
+      </c>
+      <c r="L47" t="s">
+        <v>205</v>
+      </c>
+      <c r="M47" t="s">
+        <v>205</v>
+      </c>
+      <c r="N47" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
@@ -3400,6 +3880,30 @@
       <c r="F48" t="s">
         <v>205</v>
       </c>
+      <c r="G48" t="s">
+        <v>205</v>
+      </c>
+      <c r="H48" t="s">
+        <v>205</v>
+      </c>
+      <c r="I48" t="s">
+        <v>205</v>
+      </c>
+      <c r="J48" t="s">
+        <v>205</v>
+      </c>
+      <c r="K48" t="s">
+        <v>205</v>
+      </c>
+      <c r="L48" t="s">
+        <v>205</v>
+      </c>
+      <c r="M48" t="s">
+        <v>205</v>
+      </c>
+      <c r="N48" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
@@ -3464,6 +3968,30 @@
       <c r="F50" t="s">
         <v>205</v>
       </c>
+      <c r="G50" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50" t="s">
+        <v>205</v>
+      </c>
+      <c r="I50" t="s">
+        <v>205</v>
+      </c>
+      <c r="J50" t="s">
+        <v>205</v>
+      </c>
+      <c r="K50" t="s">
+        <v>205</v>
+      </c>
+      <c r="L50" t="s">
+        <v>205</v>
+      </c>
+      <c r="M50" t="s">
+        <v>205</v>
+      </c>
+      <c r="N50" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
@@ -3616,6 +4144,30 @@
       <c r="F54" t="s">
         <v>205</v>
       </c>
+      <c r="G54" t="s">
+        <v>205</v>
+      </c>
+      <c r="H54" t="s">
+        <v>205</v>
+      </c>
+      <c r="I54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J54" t="s">
+        <v>205</v>
+      </c>
+      <c r="K54" t="s">
+        <v>205</v>
+      </c>
+      <c r="L54" t="s">
+        <v>205</v>
+      </c>
+      <c r="M54" t="s">
+        <v>205</v>
+      </c>
+      <c r="N54" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
@@ -3680,6 +4232,30 @@
       <c r="F56" t="s">
         <v>205</v>
       </c>
+      <c r="G56" t="s">
+        <v>205</v>
+      </c>
+      <c r="H56" t="s">
+        <v>205</v>
+      </c>
+      <c r="I56" t="s">
+        <v>205</v>
+      </c>
+      <c r="J56" t="s">
+        <v>205</v>
+      </c>
+      <c r="K56" t="s">
+        <v>205</v>
+      </c>
+      <c r="L56" t="s">
+        <v>205</v>
+      </c>
+      <c r="M56" t="s">
+        <v>205</v>
+      </c>
+      <c r="N56" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
@@ -3832,6 +4408,30 @@
       <c r="F60" t="s">
         <v>205</v>
       </c>
+      <c r="G60" t="s">
+        <v>205</v>
+      </c>
+      <c r="H60" t="s">
+        <v>205</v>
+      </c>
+      <c r="I60" t="s">
+        <v>205</v>
+      </c>
+      <c r="J60" t="s">
+        <v>205</v>
+      </c>
+      <c r="K60" t="s">
+        <v>205</v>
+      </c>
+      <c r="L60" t="s">
+        <v>205</v>
+      </c>
+      <c r="M60" t="s">
+        <v>205</v>
+      </c>
+      <c r="N60" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1">
@@ -3984,6 +4584,30 @@
       <c r="F64" t="s">
         <v>205</v>
       </c>
+      <c r="G64" t="s">
+        <v>205</v>
+      </c>
+      <c r="H64" t="s">
+        <v>205</v>
+      </c>
+      <c r="I64" t="s">
+        <v>205</v>
+      </c>
+      <c r="J64" t="s">
+        <v>205</v>
+      </c>
+      <c r="K64" t="s">
+        <v>205</v>
+      </c>
+      <c r="L64" t="s">
+        <v>205</v>
+      </c>
+      <c r="M64" t="s">
+        <v>205</v>
+      </c>
+      <c r="N64" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
@@ -4092,6 +4716,30 @@
       <c r="F67" t="s">
         <v>205</v>
       </c>
+      <c r="G67" t="s">
+        <v>205</v>
+      </c>
+      <c r="H67" t="s">
+        <v>205</v>
+      </c>
+      <c r="I67" t="s">
+        <v>205</v>
+      </c>
+      <c r="J67" t="s">
+        <v>205</v>
+      </c>
+      <c r="K67" t="s">
+        <v>205</v>
+      </c>
+      <c r="L67" t="s">
+        <v>205</v>
+      </c>
+      <c r="M67" t="s">
+        <v>205</v>
+      </c>
+      <c r="N67" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
@@ -4288,6 +4936,30 @@
       <c r="F72" t="s">
         <v>205</v>
       </c>
+      <c r="G72" t="s">
+        <v>205</v>
+      </c>
+      <c r="H72" t="s">
+        <v>205</v>
+      </c>
+      <c r="I72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J72" t="s">
+        <v>205</v>
+      </c>
+      <c r="K72" t="s">
+        <v>205</v>
+      </c>
+      <c r="L72" t="s">
+        <v>205</v>
+      </c>
+      <c r="M72" t="s">
+        <v>205</v>
+      </c>
+      <c r="N72" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
@@ -4440,6 +5112,30 @@
       <c r="F76" t="s">
         <v>205</v>
       </c>
+      <c r="G76" t="s">
+        <v>205</v>
+      </c>
+      <c r="H76" t="s">
+        <v>205</v>
+      </c>
+      <c r="I76" t="s">
+        <v>205</v>
+      </c>
+      <c r="J76" t="s">
+        <v>205</v>
+      </c>
+      <c r="K76" t="s">
+        <v>205</v>
+      </c>
+      <c r="L76" t="s">
+        <v>205</v>
+      </c>
+      <c r="M76" t="s">
+        <v>205</v>
+      </c>
+      <c r="N76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
@@ -4548,6 +5244,30 @@
       <c r="F79" t="s">
         <v>205</v>
       </c>
+      <c r="G79" t="s">
+        <v>205</v>
+      </c>
+      <c r="H79" t="s">
+        <v>205</v>
+      </c>
+      <c r="I79" t="s">
+        <v>205</v>
+      </c>
+      <c r="J79" t="s">
+        <v>205</v>
+      </c>
+      <c r="K79" t="s">
+        <v>205</v>
+      </c>
+      <c r="L79" t="s">
+        <v>205</v>
+      </c>
+      <c r="M79" t="s">
+        <v>205</v>
+      </c>
+      <c r="N79" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
@@ -4700,6 +5420,30 @@
       <c r="F83" t="s">
         <v>205</v>
       </c>
+      <c r="G83" t="s">
+        <v>205</v>
+      </c>
+      <c r="H83" t="s">
+        <v>205</v>
+      </c>
+      <c r="I83" t="s">
+        <v>205</v>
+      </c>
+      <c r="J83" t="s">
+        <v>205</v>
+      </c>
+      <c r="K83" t="s">
+        <v>205</v>
+      </c>
+      <c r="L83" t="s">
+        <v>205</v>
+      </c>
+      <c r="M83" t="s">
+        <v>205</v>
+      </c>
+      <c r="N83" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="1">
@@ -4764,6 +5508,30 @@
       <c r="F85" t="s">
         <v>205</v>
       </c>
+      <c r="G85" t="s">
+        <v>205</v>
+      </c>
+      <c r="H85" t="s">
+        <v>205</v>
+      </c>
+      <c r="I85" t="s">
+        <v>205</v>
+      </c>
+      <c r="J85" t="s">
+        <v>205</v>
+      </c>
+      <c r="K85" t="s">
+        <v>205</v>
+      </c>
+      <c r="L85" t="s">
+        <v>205</v>
+      </c>
+      <c r="M85" t="s">
+        <v>205</v>
+      </c>
+      <c r="N85" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
@@ -4960,6 +5728,30 @@
       <c r="F90" t="s">
         <v>205</v>
       </c>
+      <c r="G90" t="s">
+        <v>205</v>
+      </c>
+      <c r="H90" t="s">
+        <v>205</v>
+      </c>
+      <c r="I90" t="s">
+        <v>205</v>
+      </c>
+      <c r="J90" t="s">
+        <v>205</v>
+      </c>
+      <c r="K90" t="s">
+        <v>205</v>
+      </c>
+      <c r="L90" t="s">
+        <v>205</v>
+      </c>
+      <c r="M90" t="s">
+        <v>205</v>
+      </c>
+      <c r="N90" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="1">
@@ -4980,6 +5772,30 @@
       <c r="F91" t="s">
         <v>205</v>
       </c>
+      <c r="G91" t="s">
+        <v>205</v>
+      </c>
+      <c r="H91" t="s">
+        <v>205</v>
+      </c>
+      <c r="I91" t="s">
+        <v>205</v>
+      </c>
+      <c r="J91" t="s">
+        <v>205</v>
+      </c>
+      <c r="K91" t="s">
+        <v>205</v>
+      </c>
+      <c r="L91" t="s">
+        <v>205</v>
+      </c>
+      <c r="M91" t="s">
+        <v>205</v>
+      </c>
+      <c r="N91" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
@@ -5176,6 +5992,30 @@
       <c r="F96" t="s">
         <v>205</v>
       </c>
+      <c r="G96" t="s">
+        <v>205</v>
+      </c>
+      <c r="H96" t="s">
+        <v>205</v>
+      </c>
+      <c r="I96" t="s">
+        <v>205</v>
+      </c>
+      <c r="J96" t="s">
+        <v>205</v>
+      </c>
+      <c r="K96" t="s">
+        <v>205</v>
+      </c>
+      <c r="L96" t="s">
+        <v>205</v>
+      </c>
+      <c r="M96" t="s">
+        <v>205</v>
+      </c>
+      <c r="N96" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1">
@@ -5416,6 +6256,30 @@
       <c r="F102" t="s">
         <v>205</v>
       </c>
+      <c r="G102" t="s">
+        <v>205</v>
+      </c>
+      <c r="H102" t="s">
+        <v>205</v>
+      </c>
+      <c r="I102" t="s">
+        <v>205</v>
+      </c>
+      <c r="J102" t="s">
+        <v>205</v>
+      </c>
+      <c r="K102" t="s">
+        <v>205</v>
+      </c>
+      <c r="L102" t="s">
+        <v>205</v>
+      </c>
+      <c r="M102" t="s">
+        <v>205</v>
+      </c>
+      <c r="N102" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="1">
@@ -5436,6 +6300,30 @@
       <c r="F103" t="s">
         <v>205</v>
       </c>
+      <c r="G103" t="s">
+        <v>205</v>
+      </c>
+      <c r="H103" t="s">
+        <v>205</v>
+      </c>
+      <c r="I103" t="s">
+        <v>205</v>
+      </c>
+      <c r="J103" t="s">
+        <v>205</v>
+      </c>
+      <c r="K103" t="s">
+        <v>205</v>
+      </c>
+      <c r="L103" t="s">
+        <v>205</v>
+      </c>
+      <c r="M103" t="s">
+        <v>205</v>
+      </c>
+      <c r="N103" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1">
@@ -5544,6 +6432,30 @@
       <c r="F106" t="s">
         <v>205</v>
       </c>
+      <c r="G106" t="s">
+        <v>205</v>
+      </c>
+      <c r="H106" t="s">
+        <v>205</v>
+      </c>
+      <c r="I106" t="s">
+        <v>205</v>
+      </c>
+      <c r="J106" t="s">
+        <v>205</v>
+      </c>
+      <c r="K106" t="s">
+        <v>205</v>
+      </c>
+      <c r="L106" t="s">
+        <v>205</v>
+      </c>
+      <c r="M106" t="s">
+        <v>205</v>
+      </c>
+      <c r="N106" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
@@ -5740,6 +6652,30 @@
       <c r="F111" t="s">
         <v>205</v>
       </c>
+      <c r="G111" t="s">
+        <v>205</v>
+      </c>
+      <c r="H111" t="s">
+        <v>205</v>
+      </c>
+      <c r="I111" t="s">
+        <v>205</v>
+      </c>
+      <c r="J111" t="s">
+        <v>205</v>
+      </c>
+      <c r="K111" t="s">
+        <v>205</v>
+      </c>
+      <c r="L111" t="s">
+        <v>205</v>
+      </c>
+      <c r="M111" t="s">
+        <v>205</v>
+      </c>
+      <c r="N111" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="1">
@@ -5980,6 +6916,30 @@
       <c r="F117" t="s">
         <v>205</v>
       </c>
+      <c r="G117" t="s">
+        <v>205</v>
+      </c>
+      <c r="H117" t="s">
+        <v>205</v>
+      </c>
+      <c r="I117" t="s">
+        <v>205</v>
+      </c>
+      <c r="J117" t="s">
+        <v>205</v>
+      </c>
+      <c r="K117" t="s">
+        <v>205</v>
+      </c>
+      <c r="L117" t="s">
+        <v>205</v>
+      </c>
+      <c r="M117" t="s">
+        <v>205</v>
+      </c>
+      <c r="N117" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
@@ -6044,6 +7004,30 @@
       <c r="F119" t="s">
         <v>205</v>
       </c>
+      <c r="G119" t="s">
+        <v>205</v>
+      </c>
+      <c r="H119" t="s">
+        <v>205</v>
+      </c>
+      <c r="I119" t="s">
+        <v>205</v>
+      </c>
+      <c r="J119" t="s">
+        <v>205</v>
+      </c>
+      <c r="K119" t="s">
+        <v>205</v>
+      </c>
+      <c r="L119" t="s">
+        <v>205</v>
+      </c>
+      <c r="M119" t="s">
+        <v>205</v>
+      </c>
+      <c r="N119" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
@@ -6284,6 +7268,30 @@
       <c r="F125" t="s">
         <v>205</v>
       </c>
+      <c r="G125" t="s">
+        <v>205</v>
+      </c>
+      <c r="H125" t="s">
+        <v>205</v>
+      </c>
+      <c r="I125" t="s">
+        <v>205</v>
+      </c>
+      <c r="J125" t="s">
+        <v>205</v>
+      </c>
+      <c r="K125" t="s">
+        <v>205</v>
+      </c>
+      <c r="L125" t="s">
+        <v>205</v>
+      </c>
+      <c r="M125" t="s">
+        <v>205</v>
+      </c>
+      <c r="N125" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="1">
@@ -6348,6 +7356,30 @@
       <c r="F127" t="s">
         <v>205</v>
       </c>
+      <c r="G127" t="s">
+        <v>205</v>
+      </c>
+      <c r="H127" t="s">
+        <v>205</v>
+      </c>
+      <c r="I127" t="s">
+        <v>205</v>
+      </c>
+      <c r="J127" t="s">
+        <v>205</v>
+      </c>
+      <c r="K127" t="s">
+        <v>205</v>
+      </c>
+      <c r="L127" t="s">
+        <v>205</v>
+      </c>
+      <c r="M127" t="s">
+        <v>205</v>
+      </c>
+      <c r="N127" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
@@ -6368,6 +7400,30 @@
       <c r="F128" t="s">
         <v>205</v>
       </c>
+      <c r="G128" t="s">
+        <v>205</v>
+      </c>
+      <c r="H128" t="s">
+        <v>205</v>
+      </c>
+      <c r="I128" t="s">
+        <v>205</v>
+      </c>
+      <c r="J128" t="s">
+        <v>205</v>
+      </c>
+      <c r="K128" t="s">
+        <v>205</v>
+      </c>
+      <c r="L128" t="s">
+        <v>205</v>
+      </c>
+      <c r="M128" t="s">
+        <v>205</v>
+      </c>
+      <c r="N128" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
@@ -6652,6 +7708,30 @@
       <c r="F135" t="s">
         <v>205</v>
       </c>
+      <c r="G135" t="s">
+        <v>205</v>
+      </c>
+      <c r="H135" t="s">
+        <v>205</v>
+      </c>
+      <c r="I135" t="s">
+        <v>205</v>
+      </c>
+      <c r="J135" t="s">
+        <v>205</v>
+      </c>
+      <c r="K135" t="s">
+        <v>205</v>
+      </c>
+      <c r="L135" t="s">
+        <v>205</v>
+      </c>
+      <c r="M135" t="s">
+        <v>205</v>
+      </c>
+      <c r="N135" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
@@ -6716,6 +7796,30 @@
       <c r="F137" t="s">
         <v>205</v>
       </c>
+      <c r="G137" t="s">
+        <v>205</v>
+      </c>
+      <c r="H137" t="s">
+        <v>205</v>
+      </c>
+      <c r="I137" t="s">
+        <v>205</v>
+      </c>
+      <c r="J137" t="s">
+        <v>205</v>
+      </c>
+      <c r="K137" t="s">
+        <v>205</v>
+      </c>
+      <c r="L137" t="s">
+        <v>205</v>
+      </c>
+      <c r="M137" t="s">
+        <v>205</v>
+      </c>
+      <c r="N137" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
@@ -6824,6 +7928,30 @@
       <c r="F140" t="s">
         <v>205</v>
       </c>
+      <c r="G140" t="s">
+        <v>205</v>
+      </c>
+      <c r="H140" t="s">
+        <v>205</v>
+      </c>
+      <c r="I140" t="s">
+        <v>205</v>
+      </c>
+      <c r="J140" t="s">
+        <v>205</v>
+      </c>
+      <c r="K140" t="s">
+        <v>205</v>
+      </c>
+      <c r="L140" t="s">
+        <v>205</v>
+      </c>
+      <c r="M140" t="s">
+        <v>205</v>
+      </c>
+      <c r="N140" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
@@ -7064,6 +8192,30 @@
       <c r="F146" t="s">
         <v>205</v>
       </c>
+      <c r="G146" t="s">
+        <v>205</v>
+      </c>
+      <c r="H146" t="s">
+        <v>205</v>
+      </c>
+      <c r="I146" t="s">
+        <v>205</v>
+      </c>
+      <c r="J146" t="s">
+        <v>205</v>
+      </c>
+      <c r="K146" t="s">
+        <v>205</v>
+      </c>
+      <c r="L146" t="s">
+        <v>205</v>
+      </c>
+      <c r="M146" t="s">
+        <v>205</v>
+      </c>
+      <c r="N146" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="1">
@@ -7348,6 +8500,30 @@
       <c r="F153" t="s">
         <v>205</v>
       </c>
+      <c r="G153" t="s">
+        <v>205</v>
+      </c>
+      <c r="H153" t="s">
+        <v>205</v>
+      </c>
+      <c r="I153" t="s">
+        <v>205</v>
+      </c>
+      <c r="J153" t="s">
+        <v>205</v>
+      </c>
+      <c r="K153" t="s">
+        <v>205</v>
+      </c>
+      <c r="L153" t="s">
+        <v>205</v>
+      </c>
+      <c r="M153" t="s">
+        <v>205</v>
+      </c>
+      <c r="N153" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="1">
@@ -7368,6 +8544,30 @@
       <c r="F154" t="s">
         <v>205</v>
       </c>
+      <c r="G154" t="s">
+        <v>205</v>
+      </c>
+      <c r="H154" t="s">
+        <v>205</v>
+      </c>
+      <c r="I154" t="s">
+        <v>205</v>
+      </c>
+      <c r="J154" t="s">
+        <v>205</v>
+      </c>
+      <c r="K154" t="s">
+        <v>205</v>
+      </c>
+      <c r="L154" t="s">
+        <v>205</v>
+      </c>
+      <c r="M154" t="s">
+        <v>205</v>
+      </c>
+      <c r="N154" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
@@ -7608,6 +8808,30 @@
       <c r="F160" t="s">
         <v>205</v>
       </c>
+      <c r="G160" t="s">
+        <v>205</v>
+      </c>
+      <c r="H160" t="s">
+        <v>205</v>
+      </c>
+      <c r="I160" t="s">
+        <v>205</v>
+      </c>
+      <c r="J160" t="s">
+        <v>205</v>
+      </c>
+      <c r="K160" t="s">
+        <v>205</v>
+      </c>
+      <c r="L160" t="s">
+        <v>205</v>
+      </c>
+      <c r="M160" t="s">
+        <v>205</v>
+      </c>
+      <c r="N160" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
@@ -7628,6 +8852,30 @@
       <c r="F161" t="s">
         <v>205</v>
       </c>
+      <c r="G161" t="s">
+        <v>205</v>
+      </c>
+      <c r="H161" t="s">
+        <v>205</v>
+      </c>
+      <c r="I161" t="s">
+        <v>205</v>
+      </c>
+      <c r="J161" t="s">
+        <v>205</v>
+      </c>
+      <c r="K161" t="s">
+        <v>205</v>
+      </c>
+      <c r="L161" t="s">
+        <v>205</v>
+      </c>
+      <c r="M161" t="s">
+        <v>205</v>
+      </c>
+      <c r="N161" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
@@ -7648,6 +8896,30 @@
       <c r="F162" t="s">
         <v>205</v>
       </c>
+      <c r="G162" t="s">
+        <v>205</v>
+      </c>
+      <c r="H162" t="s">
+        <v>205</v>
+      </c>
+      <c r="I162" t="s">
+        <v>205</v>
+      </c>
+      <c r="J162" t="s">
+        <v>205</v>
+      </c>
+      <c r="K162" t="s">
+        <v>205</v>
+      </c>
+      <c r="L162" t="s">
+        <v>205</v>
+      </c>
+      <c r="M162" t="s">
+        <v>205</v>
+      </c>
+      <c r="N162" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="1">
@@ -7844,6 +9116,30 @@
       <c r="F167" t="s">
         <v>205</v>
       </c>
+      <c r="G167" t="s">
+        <v>205</v>
+      </c>
+      <c r="H167" t="s">
+        <v>205</v>
+      </c>
+      <c r="I167" t="s">
+        <v>205</v>
+      </c>
+      <c r="J167" t="s">
+        <v>205</v>
+      </c>
+      <c r="K167" t="s">
+        <v>205</v>
+      </c>
+      <c r="L167" t="s">
+        <v>205</v>
+      </c>
+      <c r="M167" t="s">
+        <v>205</v>
+      </c>
+      <c r="N167" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
@@ -8084,6 +9380,30 @@
       <c r="F173" t="s">
         <v>205</v>
       </c>
+      <c r="G173" t="s">
+        <v>205</v>
+      </c>
+      <c r="H173" t="s">
+        <v>205</v>
+      </c>
+      <c r="I173" t="s">
+        <v>205</v>
+      </c>
+      <c r="J173" t="s">
+        <v>205</v>
+      </c>
+      <c r="K173" t="s">
+        <v>205</v>
+      </c>
+      <c r="L173" t="s">
+        <v>205</v>
+      </c>
+      <c r="M173" t="s">
+        <v>205</v>
+      </c>
+      <c r="N173" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
@@ -8104,6 +9424,30 @@
       <c r="F174" t="s">
         <v>205</v>
       </c>
+      <c r="G174" t="s">
+        <v>205</v>
+      </c>
+      <c r="H174" t="s">
+        <v>205</v>
+      </c>
+      <c r="I174" t="s">
+        <v>205</v>
+      </c>
+      <c r="J174" t="s">
+        <v>205</v>
+      </c>
+      <c r="K174" t="s">
+        <v>205</v>
+      </c>
+      <c r="L174" t="s">
+        <v>205</v>
+      </c>
+      <c r="M174" t="s">
+        <v>205</v>
+      </c>
+      <c r="N174" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="1">
@@ -8124,6 +9468,30 @@
       <c r="F175" t="s">
         <v>205</v>
       </c>
+      <c r="G175" t="s">
+        <v>205</v>
+      </c>
+      <c r="H175" t="s">
+        <v>205</v>
+      </c>
+      <c r="I175" t="s">
+        <v>205</v>
+      </c>
+      <c r="J175" t="s">
+        <v>205</v>
+      </c>
+      <c r="K175" t="s">
+        <v>205</v>
+      </c>
+      <c r="L175" t="s">
+        <v>205</v>
+      </c>
+      <c r="M175" t="s">
+        <v>205</v>
+      </c>
+      <c r="N175" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="1">
@@ -8144,6 +9512,30 @@
       <c r="F176" t="s">
         <v>205</v>
       </c>
+      <c r="G176" t="s">
+        <v>205</v>
+      </c>
+      <c r="H176" t="s">
+        <v>205</v>
+      </c>
+      <c r="I176" t="s">
+        <v>205</v>
+      </c>
+      <c r="J176" t="s">
+        <v>205</v>
+      </c>
+      <c r="K176" t="s">
+        <v>205</v>
+      </c>
+      <c r="L176" t="s">
+        <v>205</v>
+      </c>
+      <c r="M176" t="s">
+        <v>205</v>
+      </c>
+      <c r="N176" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="1">
@@ -8208,6 +9600,30 @@
       <c r="F178" t="s">
         <v>205</v>
       </c>
+      <c r="G178" t="s">
+        <v>205</v>
+      </c>
+      <c r="H178" t="s">
+        <v>205</v>
+      </c>
+      <c r="I178" t="s">
+        <v>205</v>
+      </c>
+      <c r="J178" t="s">
+        <v>205</v>
+      </c>
+      <c r="K178" t="s">
+        <v>205</v>
+      </c>
+      <c r="L178" t="s">
+        <v>205</v>
+      </c>
+      <c r="M178" t="s">
+        <v>205</v>
+      </c>
+      <c r="N178" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="1">
@@ -8228,6 +9644,30 @@
       <c r="F179" t="s">
         <v>205</v>
       </c>
+      <c r="G179" t="s">
+        <v>205</v>
+      </c>
+      <c r="H179" t="s">
+        <v>205</v>
+      </c>
+      <c r="I179" t="s">
+        <v>205</v>
+      </c>
+      <c r="J179" t="s">
+        <v>205</v>
+      </c>
+      <c r="K179" t="s">
+        <v>205</v>
+      </c>
+      <c r="L179" t="s">
+        <v>205</v>
+      </c>
+      <c r="M179" t="s">
+        <v>205</v>
+      </c>
+      <c r="N179" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="1">
@@ -8424,6 +9864,30 @@
       <c r="F184" t="s">
         <v>205</v>
       </c>
+      <c r="G184" t="s">
+        <v>205</v>
+      </c>
+      <c r="H184" t="s">
+        <v>205</v>
+      </c>
+      <c r="I184" t="s">
+        <v>205</v>
+      </c>
+      <c r="J184" t="s">
+        <v>205</v>
+      </c>
+      <c r="K184" t="s">
+        <v>205</v>
+      </c>
+      <c r="L184" t="s">
+        <v>205</v>
+      </c>
+      <c r="M184" t="s">
+        <v>205</v>
+      </c>
+      <c r="N184" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="1">
@@ -8488,6 +9952,30 @@
       <c r="F186" t="s">
         <v>205</v>
       </c>
+      <c r="G186" t="s">
+        <v>205</v>
+      </c>
+      <c r="H186" t="s">
+        <v>205</v>
+      </c>
+      <c r="I186" t="s">
+        <v>205</v>
+      </c>
+      <c r="J186" t="s">
+        <v>205</v>
+      </c>
+      <c r="K186" t="s">
+        <v>205</v>
+      </c>
+      <c r="L186" t="s">
+        <v>205</v>
+      </c>
+      <c r="M186" t="s">
+        <v>205</v>
+      </c>
+      <c r="N186" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="1">
@@ -8640,6 +10128,30 @@
       <c r="F190" t="s">
         <v>205</v>
       </c>
+      <c r="G190" t="s">
+        <v>205</v>
+      </c>
+      <c r="H190" t="s">
+        <v>205</v>
+      </c>
+      <c r="I190" t="s">
+        <v>205</v>
+      </c>
+      <c r="J190" t="s">
+        <v>205</v>
+      </c>
+      <c r="K190" t="s">
+        <v>205</v>
+      </c>
+      <c r="L190" t="s">
+        <v>205</v>
+      </c>
+      <c r="M190" t="s">
+        <v>205</v>
+      </c>
+      <c r="N190" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="1">
@@ -8729,7 +10241,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:14">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8746,6 +10258,30 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
+        <v>205</v>
+      </c>
+      <c r="G193" t="s">
+        <v>205</v>
+      </c>
+      <c r="H193" t="s">
+        <v>205</v>
+      </c>
+      <c r="I193" t="s">
+        <v>205</v>
+      </c>
+      <c r="J193" t="s">
+        <v>205</v>
+      </c>
+      <c r="K193" t="s">
+        <v>205</v>
+      </c>
+      <c r="L193" t="s">
+        <v>205</v>
+      </c>
+      <c r="M193" t="s">
+        <v>205</v>
+      </c>
+      <c r="N193" t="s">
         <v>205</v>
       </c>
     </row>

--- a/sequences/01_retrieval_1.xlsx
+++ b/sequences/01_retrieval_1.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>schalten</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>stoppen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>weinen</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>rücken</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>eignen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>rauben</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>fassen</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>plaudern</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
     <t>herzen</t>
   </si>
   <si>
-    <t>rechnen</t>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>beten</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>baden</t>
+  </si>
+  <si>
+    <t>scheitern</t>
   </si>
   <si>
     <t>atmen</t>
   </si>
   <si>
-    <t>lösen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>weigern</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>wehen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>geben</t>
   </si>
   <si>
     <t>trösten</t>
   </si>
   <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>hauen</t>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>narren</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>füllen</t>
+  </si>
+  <si>
+    <t>brauen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>ächzen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>drucken</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>wetten</t>
+  </si>
+  <si>
+    <t>träumen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>teilen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>läuten</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>schlucken</t>
   </si>
   <si>
     <t>knarren</t>
   </si>
   <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>runden</t>
+    <t>duschen</t>
+  </si>
+  <si>
+    <t>wechseln</t>
+  </si>
+  <si>
+    <t>klagen</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>hindern</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>feiern</t>
   </si>
   <si>
     <t>stammen</t>
   </si>
   <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>leiden</t>
-  </si>
-  <si>
-    <t>laden</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>filmen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>reiten</t>
-  </si>
-  <si>
-    <t>läuten</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>regen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>nennen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>orten</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>rauben</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>spinnen</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>irren</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>treffen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>pinkeln</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>schwächen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>doppeln</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>pflanzen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>malen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>plaudern</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>beten</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>proben</t>
+    <t>prügeln</t>
   </si>
   <si>
     <t>achten</t>
   </si>
   <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>kosten</t>
-  </si>
-  <si>
-    <t>rauchen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>feiern</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>wärmen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>lesen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>äußern</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>schalten</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>schließen</t>
-  </si>
-  <si>
-    <t>graben</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>messen</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>suchen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>heulen</t>
-  </si>
-  <si>
-    <t>kürzen</t>
-  </si>
-  <si>
-    <t>klettern</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>lohnen</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>freuen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>zünden</t>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>lieben</t>
   </si>
   <si>
     <t>N/A</t>

--- a/sequences/01_retrieval_1.xlsx
+++ b/sequences/01_retrieval_1.xlsx
@@ -1048,388 +1048,388 @@
     <t>house</t>
   </si>
   <si>
+    <t>dog/dog250.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower159.jpg</t>
+  </si>
+  <si>
+    <t>house/house258.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower123.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog254.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower256.jpg</t>
+  </si>
+  <si>
+    <t>house/house100.jpg</t>
+  </si>
+  <si>
+    <t>face/face134.jpg</t>
+  </si>
+  <si>
+    <t>face/face147.jpg</t>
+  </si>
+  <si>
+    <t>face/face240.jpg</t>
+  </si>
+  <si>
+    <t>face/face207.jpg</t>
+  </si>
+  <si>
+    <t>face/face142.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog229.jpg</t>
+  </si>
+  <si>
+    <t>face/face228.jpg</t>
+  </si>
+  <si>
+    <t>house/house227.jpg</t>
+  </si>
+  <si>
+    <t>house/house228.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower253.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog167.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower137.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog118.jpg</t>
+  </si>
+  <si>
+    <t>house/house122.jpg</t>
+  </si>
+  <si>
+    <t>house/house232.jpg</t>
+  </si>
+  <si>
+    <t>house/house261.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog190.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower215.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower167.jpg</t>
+  </si>
+  <si>
+    <t>face/face186.jpg</t>
+  </si>
+  <si>
+    <t>house/house104.jpg</t>
+  </si>
+  <si>
+    <t>face/face218.jpg</t>
+  </si>
+  <si>
+    <t>face/face145.jpg</t>
+  </si>
+  <si>
+    <t>house/house181.jpg</t>
+  </si>
+  <si>
+    <t>house/house166.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower209.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower247.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog155.jpg</t>
+  </si>
+  <si>
+    <t>house/house231.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog244.jpg</t>
+  </si>
+  <si>
+    <t>house/house160.jpg</t>
+  </si>
+  <si>
+    <t>house/house114.jpg</t>
+  </si>
+  <si>
+    <t>house/house165.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower118.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower176.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog215.jpg</t>
+  </si>
+  <si>
+    <t>face/face098.jpg</t>
+  </si>
+  <si>
+    <t>house/house102.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower228.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower172.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower254.jpg</t>
+  </si>
+  <si>
+    <t>house/house203.jpg</t>
+  </si>
+  <si>
+    <t>face/face245.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog202.jpg</t>
+  </si>
+  <si>
     <t>flower/flower130.jpg</t>
   </si>
   <si>
+    <t>face/face107.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog122.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower128.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower255.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower191.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog141.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog195.jpg</t>
+  </si>
+  <si>
     <t>face/face149.jpg</t>
   </si>
   <si>
-    <t>face/face142.jpg</t>
-  </si>
-  <si>
-    <t>house/house203.jpg</t>
+    <t>house/house140.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog138.jpg</t>
+  </si>
+  <si>
+    <t>house/house204.jpg</t>
   </si>
   <si>
     <t>dog/dog236.jpg</t>
   </si>
   <si>
-    <t>flower/flower159.jpg</t>
-  </si>
-  <si>
-    <t>house/house232.jpg</t>
+    <t>dog/dog142.jpg</t>
+  </si>
+  <si>
+    <t>house/house124.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower163.jpg</t>
+  </si>
+  <si>
+    <t>house/house169.jpg</t>
+  </si>
+  <si>
+    <t>face/face237.jpg</t>
+  </si>
+  <si>
+    <t>house/house134.jpg</t>
+  </si>
+  <si>
+    <t>face/face152.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower103.jpg</t>
+  </si>
+  <si>
+    <t>face/face146.jpg</t>
+  </si>
+  <si>
+    <t>house/house171.jpg</t>
+  </si>
+  <si>
+    <t>house/house152.jpg</t>
+  </si>
+  <si>
+    <t>face/face193.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog163.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog185.jpg</t>
+  </si>
+  <si>
+    <t>face/face125.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog206.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower234.jpg</t>
+  </si>
+  <si>
+    <t>face/face180.jpg</t>
+  </si>
+  <si>
+    <t>house/house170.jpg</t>
+  </si>
+  <si>
+    <t>face/face198.jpg</t>
+  </si>
+  <si>
+    <t>house/house241.jpg</t>
+  </si>
+  <si>
+    <t>face/face161.jpg</t>
   </si>
   <si>
     <t>flower/flower218.jpg</t>
   </si>
   <si>
+    <t>face/face257.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog164.jpg</t>
+  </si>
+  <si>
+    <t>face/face177.jpg</t>
+  </si>
+  <si>
+    <t>face/face201.jpg</t>
+  </si>
+  <si>
+    <t>face/face236.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower233.jpg</t>
+  </si>
+  <si>
+    <t>face/face255.jpg</t>
+  </si>
+  <si>
+    <t>face/face246.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog106.jpg</t>
+  </si>
+  <si>
+    <t>house/house236.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower101.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower249.jpg</t>
+  </si>
+  <si>
+    <t>face/face170.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog199.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog259.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog133.jpg</t>
+  </si>
+  <si>
+    <t>face/face249.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog210.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower133.jpg</t>
+  </si>
+  <si>
     <t>flower/flower210.jpg</t>
   </si>
   <si>
-    <t>flower/flower234.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower228.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower128.jpg</t>
+    <t>house/house217.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog121.jpg</t>
+  </si>
+  <si>
+    <t>face/face174.jpg</t>
   </si>
   <si>
     <t>flower/flower192.jpg</t>
   </si>
   <si>
-    <t>face/face240.jpg</t>
-  </si>
-  <si>
-    <t>house/house166.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog259.jpg</t>
-  </si>
-  <si>
-    <t>face/face236.jpg</t>
-  </si>
-  <si>
     <t>dog/dog132.jpg</t>
   </si>
   <si>
-    <t>face/face161.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog199.jpg</t>
-  </si>
-  <si>
-    <t>house/house236.jpg</t>
-  </si>
-  <si>
-    <t>house/house102.jpg</t>
-  </si>
-  <si>
-    <t>face/face193.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower247.jpg</t>
-  </si>
-  <si>
-    <t>face/face186.jpg</t>
-  </si>
-  <si>
-    <t>face/face098.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower215.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower172.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower256.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog229.jpg</t>
-  </si>
-  <si>
-    <t>face/face125.jpg</t>
-  </si>
-  <si>
-    <t>house/house160.jpg</t>
+    <t>dog/dog228.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog243.jpg</t>
+  </si>
+  <si>
+    <t>house/house237.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower231.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog169.jpg</t>
   </si>
   <si>
     <t>dog/dog131.jpg</t>
   </si>
   <si>
-    <t>face/face257.jpg</t>
-  </si>
-  <si>
-    <t>face/face147.jpg</t>
-  </si>
-  <si>
-    <t>face/face255.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog206.jpg</t>
-  </si>
-  <si>
-    <t>house/house231.jpg</t>
+    <t>flower/flower152.jpg</t>
+  </si>
+  <si>
+    <t>house/house240.jpg</t>
+  </si>
+  <si>
+    <t>face/face213.jpg</t>
+  </si>
+  <si>
+    <t>house/house178.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog235.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower257.jpg</t>
   </si>
   <si>
     <t>house/house131.jpg</t>
   </si>
   <si>
-    <t>house/house227.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower118.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower231.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower123.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog243.jpg</t>
-  </si>
-  <si>
-    <t>house/house240.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower152.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog138.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog195.jpg</t>
-  </si>
-  <si>
-    <t>house/house114.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower254.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower133.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog190.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog118.jpg</t>
-  </si>
-  <si>
-    <t>house/house228.jpg</t>
-  </si>
-  <si>
-    <t>face/face180.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog235.jpg</t>
-  </si>
-  <si>
-    <t>face/face145.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog141.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog163.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog142.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog244.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower209.jpg</t>
-  </si>
-  <si>
-    <t>face/face249.jpg</t>
-  </si>
-  <si>
-    <t>house/house100.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower249.jpg</t>
-  </si>
-  <si>
-    <t>house/house258.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower255.jpg</t>
-  </si>
-  <si>
-    <t>house/house169.jpg</t>
-  </si>
-  <si>
-    <t>face/face170.jpg</t>
-  </si>
-  <si>
-    <t>house/house134.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog185.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower163.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog167.jpg</t>
-  </si>
-  <si>
-    <t>house/house241.jpg</t>
-  </si>
-  <si>
-    <t>house/house152.jpg</t>
-  </si>
-  <si>
-    <t>face/face174.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog228.jpg</t>
-  </si>
-  <si>
-    <t>house/house122.jpg</t>
-  </si>
-  <si>
-    <t>face/face245.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower176.jpg</t>
-  </si>
-  <si>
-    <t>face/face246.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower137.jpg</t>
-  </si>
-  <si>
-    <t>house/house170.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower257.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog121.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower103.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog250.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower191.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower101.jpg</t>
-  </si>
-  <si>
-    <t>house/house181.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower233.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower253.jpg</t>
-  </si>
-  <si>
-    <t>face/face146.jpg</t>
-  </si>
-  <si>
-    <t>house/house178.jpg</t>
-  </si>
-  <si>
-    <t>face/face237.jpg</t>
-  </si>
-  <si>
-    <t>house/house104.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog133.jpg</t>
-  </si>
-  <si>
-    <t>house/house217.jpg</t>
-  </si>
-  <si>
-    <t>face/face152.jpg</t>
+    <t>flower/flower240.jpg</t>
+  </si>
+  <si>
+    <t>house/house137.jpg</t>
   </si>
   <si>
     <t>face/face133.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog164.jpg</t>
-  </si>
-  <si>
-    <t>house/house137.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog169.jpg</t>
-  </si>
-  <si>
-    <t>face/face134.jpg</t>
-  </si>
-  <si>
-    <t>face/face213.jpg</t>
-  </si>
-  <si>
-    <t>face/face198.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog155.jpg</t>
-  </si>
-  <si>
-    <t>house/house237.jpg</t>
-  </si>
-  <si>
-    <t>face/face218.jpg</t>
-  </si>
-  <si>
-    <t>face/face201.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog106.jpg</t>
-  </si>
-  <si>
-    <t>house/house165.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower240.jpg</t>
-  </si>
-  <si>
-    <t>face/face107.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog210.jpg</t>
-  </si>
-  <si>
-    <t>house/house261.jpg</t>
-  </si>
-  <si>
-    <t>face/face228.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower167.jpg</t>
-  </si>
-  <si>
-    <t>face/face207.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog122.jpg</t>
-  </si>
-  <si>
-    <t>house/house171.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog254.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog202.jpg</t>
-  </si>
-  <si>
-    <t>face/face177.jpg</t>
-  </si>
-  <si>
-    <t>house/house140.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog215.jpg</t>
-  </si>
-  <si>
-    <t>house/house204.jpg</t>
-  </si>
-  <si>
-    <t>house/house124.jpg</t>
   </si>
   <si>
     <t>correct/old/uncued</t>
@@ -1890,13 +1890,13 @@
         <v>327</v>
       </c>
       <c r="H2" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="I2" t="s">
         <v>344</v>
       </c>
       <c r="J2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K2" t="s">
         <v>211</v>
@@ -1917,7 +1917,7 @@
         <v>474</v>
       </c>
       <c r="Q2" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="R2" t="s">
         <v>475</v>
@@ -1946,19 +1946,19 @@
         <v>212</v>
       </c>
       <c r="G3" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="I3" t="s">
         <v>345</v>
       </c>
       <c r="J3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K3" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L3" t="s">
         <v>473</v>
@@ -1976,7 +1976,7 @@
         <v>472</v>
       </c>
       <c r="Q3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="R3" t="s">
         <v>475</v>
@@ -2005,16 +2005,16 @@
         <v>213</v>
       </c>
       <c r="G4" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="H4" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="I4" t="s">
         <v>346</v>
       </c>
       <c r="J4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K4" t="s">
         <v>346</v>
@@ -2029,13 +2029,13 @@
         <v>472</v>
       </c>
       <c r="O4" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="P4" t="s">
         <v>473</v>
       </c>
       <c r="Q4" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="R4" t="s">
         <v>475</v>
@@ -2126,16 +2126,16 @@
         <v>308</v>
       </c>
       <c r="H6" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="I6" t="s">
         <v>347</v>
       </c>
       <c r="J6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K6" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="L6" t="s">
         <v>475</v>
@@ -2185,7 +2185,7 @@
         <v>298</v>
       </c>
       <c r="H7" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="I7" t="s">
         <v>348</v>
@@ -2200,7 +2200,7 @@
         <v>473</v>
       </c>
       <c r="M7" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="N7" t="s">
         <v>475</v>
@@ -2244,7 +2244,7 @@
         <v>320</v>
       </c>
       <c r="H8" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="I8" t="s">
         <v>349</v>
@@ -2271,7 +2271,7 @@
         <v>476</v>
       </c>
       <c r="Q8" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="R8" t="s">
         <v>475</v>
@@ -2300,7 +2300,7 @@
         <v>218</v>
       </c>
       <c r="G9" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="H9" t="s">
         <v>292</v>
@@ -2318,7 +2318,7 @@
         <v>472</v>
       </c>
       <c r="M9" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="N9" t="s">
         <v>473</v>
@@ -2359,16 +2359,16 @@
         <v>219</v>
       </c>
       <c r="G10" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="H10" t="s">
-        <v>305</v>
+        <v>224</v>
       </c>
       <c r="I10" t="s">
         <v>351</v>
       </c>
       <c r="J10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K10" t="s">
         <v>351</v>
@@ -2377,7 +2377,7 @@
         <v>474</v>
       </c>
       <c r="M10" t="s">
-        <v>305</v>
+        <v>224</v>
       </c>
       <c r="N10" t="s">
         <v>475</v>
@@ -2389,7 +2389,7 @@
         <v>472</v>
       </c>
       <c r="Q10" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="R10" t="s">
         <v>473</v>
@@ -2418,16 +2418,16 @@
         <v>220</v>
       </c>
       <c r="G11" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="H11" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="I11" t="s">
         <v>352</v>
       </c>
       <c r="J11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K11" t="s">
         <v>220</v>
@@ -2436,7 +2436,7 @@
         <v>472</v>
       </c>
       <c r="M11" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="N11" t="s">
         <v>475</v>
@@ -2448,7 +2448,7 @@
         <v>474</v>
       </c>
       <c r="Q11" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="R11" t="s">
         <v>473</v>
@@ -2539,13 +2539,13 @@
         <v>263</v>
       </c>
       <c r="H13" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="I13" t="s">
         <v>353</v>
       </c>
       <c r="J13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K13" t="s">
         <v>263</v>
@@ -2554,7 +2554,7 @@
         <v>473</v>
       </c>
       <c r="M13" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="N13" t="s">
         <v>475</v>
@@ -2772,16 +2772,16 @@
         <v>222</v>
       </c>
       <c r="G17" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H17" t="s">
-        <v>311</v>
+        <v>253</v>
       </c>
       <c r="I17" t="s">
         <v>354</v>
       </c>
       <c r="J17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K17" t="s">
         <v>354</v>
@@ -2790,7 +2790,7 @@
         <v>474</v>
       </c>
       <c r="M17" t="s">
-        <v>311</v>
+        <v>253</v>
       </c>
       <c r="N17" t="s">
         <v>475</v>
@@ -2802,7 +2802,7 @@
         <v>472</v>
       </c>
       <c r="Q17" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="R17" t="s">
         <v>473</v>
@@ -2831,16 +2831,16 @@
         <v>223</v>
       </c>
       <c r="G18" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="H18" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="I18" t="s">
         <v>355</v>
       </c>
       <c r="J18" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K18" t="s">
         <v>355</v>
@@ -2855,13 +2855,13 @@
         <v>472</v>
       </c>
       <c r="O18" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="P18" t="s">
         <v>473</v>
       </c>
       <c r="Q18" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="R18" t="s">
         <v>475</v>
@@ -2893,13 +2893,13 @@
         <v>215</v>
       </c>
       <c r="H19" t="s">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="I19" t="s">
         <v>356</v>
       </c>
       <c r="J19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K19" t="s">
         <v>215</v>
@@ -2914,7 +2914,7 @@
         <v>472</v>
       </c>
       <c r="O19" t="s">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="P19" t="s">
         <v>475</v>
@@ -3011,7 +3011,7 @@
         <v>264</v>
       </c>
       <c r="H21" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="I21" t="s">
         <v>357</v>
@@ -3020,7 +3020,7 @@
         <v>340</v>
       </c>
       <c r="K21" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="L21" t="s">
         <v>475</v>
@@ -3067,10 +3067,10 @@
         <v>226</v>
       </c>
       <c r="G22" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="H22" t="s">
-        <v>290</v>
+        <v>217</v>
       </c>
       <c r="I22" t="s">
         <v>358</v>
@@ -3085,7 +3085,7 @@
         <v>472</v>
       </c>
       <c r="M22" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="N22" t="s">
         <v>473</v>
@@ -3097,7 +3097,7 @@
         <v>474</v>
       </c>
       <c r="Q22" t="s">
-        <v>290</v>
+        <v>217</v>
       </c>
       <c r="R22" t="s">
         <v>475</v>
@@ -3129,13 +3129,13 @@
         <v>224</v>
       </c>
       <c r="H23" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="I23" t="s">
         <v>359</v>
       </c>
       <c r="J23" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K23" t="s">
         <v>359</v>
@@ -3156,7 +3156,7 @@
         <v>473</v>
       </c>
       <c r="Q23" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="R23" t="s">
         <v>475</v>
@@ -3185,19 +3185,19 @@
         <v>228</v>
       </c>
       <c r="G24" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H24" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="I24" t="s">
         <v>360</v>
       </c>
       <c r="J24" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s">
         <v>473</v>
@@ -3209,7 +3209,7 @@
         <v>472</v>
       </c>
       <c r="O24" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="P24" t="s">
         <v>475</v>
@@ -3362,10 +3362,10 @@
         <v>229</v>
       </c>
       <c r="G27" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="H27" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="I27" t="s">
         <v>361</v>
@@ -3380,13 +3380,13 @@
         <v>472</v>
       </c>
       <c r="M27" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="N27" t="s">
         <v>475</v>
       </c>
       <c r="O27" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="P27" t="s">
         <v>473</v>
@@ -3421,16 +3421,16 @@
         <v>230</v>
       </c>
       <c r="G28" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="H28" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="I28" t="s">
         <v>362</v>
       </c>
       <c r="J28" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K28" t="s">
         <v>362</v>
@@ -3445,13 +3445,13 @@
         <v>472</v>
       </c>
       <c r="O28" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="P28" t="s">
         <v>475</v>
       </c>
       <c r="Q28" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="R28" t="s">
         <v>473</v>
@@ -3480,10 +3480,10 @@
         <v>231</v>
       </c>
       <c r="G29" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H29" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="I29" t="s">
         <v>363</v>
@@ -3492,7 +3492,7 @@
         <v>341</v>
       </c>
       <c r="K29" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="L29" t="s">
         <v>475</v>
@@ -3510,7 +3510,7 @@
         <v>474</v>
       </c>
       <c r="Q29" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="R29" t="s">
         <v>473</v>
@@ -3716,19 +3716,19 @@
         <v>234</v>
       </c>
       <c r="G33" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="H33" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="I33" t="s">
         <v>366</v>
       </c>
       <c r="J33" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K33" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="L33" t="s">
         <v>473</v>
@@ -3740,7 +3740,7 @@
         <v>472</v>
       </c>
       <c r="O33" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="P33" t="s">
         <v>475</v>
@@ -3837,13 +3837,13 @@
         <v>306</v>
       </c>
       <c r="H35" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="I35" t="s">
         <v>367</v>
       </c>
       <c r="J35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K35" t="s">
         <v>367</v>
@@ -3858,7 +3858,7 @@
         <v>473</v>
       </c>
       <c r="O35" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="P35" t="s">
         <v>475</v>
@@ -4011,16 +4011,16 @@
         <v>236</v>
       </c>
       <c r="G38" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="H38" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I38" t="s">
         <v>368</v>
       </c>
       <c r="J38" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K38" t="s">
         <v>368</v>
@@ -4029,13 +4029,13 @@
         <v>474</v>
       </c>
       <c r="M38" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N38" t="s">
         <v>475</v>
       </c>
       <c r="O38" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="P38" t="s">
         <v>473</v>
@@ -4070,16 +4070,16 @@
         <v>237</v>
       </c>
       <c r="G39" t="s">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="H39" t="s">
-        <v>308</v>
+        <v>231</v>
       </c>
       <c r="I39" t="s">
         <v>369</v>
       </c>
       <c r="J39" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K39" t="s">
         <v>369</v>
@@ -4094,13 +4094,13 @@
         <v>472</v>
       </c>
       <c r="O39" t="s">
-        <v>308</v>
+        <v>231</v>
       </c>
       <c r="P39" t="s">
         <v>475</v>
       </c>
       <c r="Q39" t="s">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="R39" t="s">
         <v>473</v>
@@ -4132,13 +4132,13 @@
         <v>290</v>
       </c>
       <c r="H40" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="I40" t="s">
         <v>370</v>
       </c>
       <c r="J40" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K40" t="s">
         <v>370</v>
@@ -4153,7 +4153,7 @@
         <v>472</v>
       </c>
       <c r="O40" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="P40" t="s">
         <v>475</v>
@@ -4250,16 +4250,16 @@
         <v>227</v>
       </c>
       <c r="H42" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="I42" t="s">
         <v>371</v>
       </c>
       <c r="J42" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K42" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="L42" t="s">
         <v>475</v>
@@ -4309,16 +4309,16 @@
         <v>300</v>
       </c>
       <c r="H43" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="I43" t="s">
         <v>372</v>
       </c>
       <c r="J43" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K43" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="L43" t="s">
         <v>475</v>
@@ -4427,13 +4427,13 @@
         <v>304</v>
       </c>
       <c r="H45" t="s">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="I45" t="s">
         <v>373</v>
       </c>
       <c r="J45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K45" t="s">
         <v>304</v>
@@ -4448,7 +4448,7 @@
         <v>474</v>
       </c>
       <c r="O45" t="s">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="P45" t="s">
         <v>475</v>
@@ -4483,19 +4483,19 @@
         <v>242</v>
       </c>
       <c r="G46" t="s">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c r="H46" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="I46" t="s">
         <v>374</v>
       </c>
       <c r="J46" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K46" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="L46" t="s">
         <v>475</v>
@@ -4513,7 +4513,7 @@
         <v>472</v>
       </c>
       <c r="Q46" t="s">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c r="R46" t="s">
         <v>473</v>
@@ -4542,7 +4542,7 @@
         <v>243</v>
       </c>
       <c r="G47" t="s">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="H47" t="s">
         <v>329</v>
@@ -4566,7 +4566,7 @@
         <v>475</v>
       </c>
       <c r="O47" t="s">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="P47" t="s">
         <v>473</v>
@@ -4663,13 +4663,13 @@
         <v>288</v>
       </c>
       <c r="H49" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="I49" t="s">
         <v>376</v>
       </c>
       <c r="J49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K49" t="s">
         <v>376</v>
@@ -4684,7 +4684,7 @@
         <v>472</v>
       </c>
       <c r="O49" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="P49" t="s">
         <v>475</v>
@@ -4722,13 +4722,13 @@
         <v>330</v>
       </c>
       <c r="H50" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="I50" t="s">
         <v>377</v>
       </c>
       <c r="J50" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K50" t="s">
         <v>245</v>
@@ -4743,7 +4743,7 @@
         <v>473</v>
       </c>
       <c r="O50" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="P50" t="s">
         <v>475</v>
@@ -4781,13 +4781,13 @@
         <v>328</v>
       </c>
       <c r="H51" t="s">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="I51" t="s">
         <v>378</v>
       </c>
       <c r="J51" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K51" t="s">
         <v>328</v>
@@ -4808,7 +4808,7 @@
         <v>476</v>
       </c>
       <c r="Q51" t="s">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="R51" t="s">
         <v>475</v>
@@ -4837,16 +4837,16 @@
         <v>247</v>
       </c>
       <c r="G52" t="s">
-        <v>237</v>
+        <v>335</v>
       </c>
       <c r="H52" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="I52" t="s">
         <v>379</v>
       </c>
       <c r="J52" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K52" t="s">
         <v>247</v>
@@ -4855,13 +4855,13 @@
         <v>472</v>
       </c>
       <c r="M52" t="s">
-        <v>237</v>
+        <v>335</v>
       </c>
       <c r="N52" t="s">
         <v>473</v>
       </c>
       <c r="O52" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="P52" t="s">
         <v>475</v>
@@ -4955,10 +4955,10 @@
         <v>248</v>
       </c>
       <c r="G54" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="H54" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I54" t="s">
         <v>380</v>
@@ -4967,13 +4967,13 @@
         <v>341</v>
       </c>
       <c r="K54" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="L54" t="s">
         <v>473</v>
       </c>
       <c r="M54" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="N54" t="s">
         <v>475</v>
@@ -5014,7 +5014,7 @@
         <v>249</v>
       </c>
       <c r="G55" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="H55" t="s">
         <v>317</v>
@@ -5038,7 +5038,7 @@
         <v>475</v>
       </c>
       <c r="O55" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="P55" t="s">
         <v>473</v>
@@ -5073,7 +5073,7 @@
         <v>250</v>
       </c>
       <c r="G56" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="H56" t="s">
         <v>225</v>
@@ -5103,7 +5103,7 @@
         <v>475</v>
       </c>
       <c r="Q56" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="R56" t="s">
         <v>473</v>
@@ -5253,7 +5253,7 @@
         <v>235</v>
       </c>
       <c r="H59" t="s">
-        <v>234</v>
+        <v>315</v>
       </c>
       <c r="I59" t="s">
         <v>384</v>
@@ -5280,7 +5280,7 @@
         <v>476</v>
       </c>
       <c r="Q59" t="s">
-        <v>234</v>
+        <v>315</v>
       </c>
       <c r="R59" t="s">
         <v>475</v>
@@ -5312,7 +5312,7 @@
         <v>267</v>
       </c>
       <c r="H60" t="s">
-        <v>265</v>
+        <v>338</v>
       </c>
       <c r="I60" t="s">
         <v>385</v>
@@ -5327,7 +5327,7 @@
         <v>474</v>
       </c>
       <c r="M60" t="s">
-        <v>265</v>
+        <v>338</v>
       </c>
       <c r="N60" t="s">
         <v>475</v>
@@ -5430,13 +5430,13 @@
         <v>291</v>
       </c>
       <c r="H62" t="s">
-        <v>333</v>
+        <v>228</v>
       </c>
       <c r="I62" t="s">
         <v>386</v>
       </c>
       <c r="J62" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K62" t="s">
         <v>254</v>
@@ -5451,7 +5451,7 @@
         <v>473</v>
       </c>
       <c r="O62" t="s">
-        <v>333</v>
+        <v>228</v>
       </c>
       <c r="P62" t="s">
         <v>475</v>
@@ -5486,16 +5486,16 @@
         <v>255</v>
       </c>
       <c r="G63" t="s">
-        <v>338</v>
+        <v>280</v>
       </c>
       <c r="H63" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="I63" t="s">
         <v>387</v>
       </c>
       <c r="J63" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K63" t="s">
         <v>255</v>
@@ -5510,13 +5510,13 @@
         <v>474</v>
       </c>
       <c r="O63" t="s">
-        <v>338</v>
+        <v>280</v>
       </c>
       <c r="P63" t="s">
         <v>473</v>
       </c>
       <c r="Q63" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="R63" t="s">
         <v>475</v>
@@ -5545,10 +5545,10 @@
         <v>256</v>
       </c>
       <c r="G64" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H64" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="I64" t="s">
         <v>388</v>
@@ -5569,13 +5569,13 @@
         <v>472</v>
       </c>
       <c r="O64" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="P64" t="s">
         <v>475</v>
       </c>
       <c r="Q64" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="R64" t="s">
         <v>473</v>
@@ -5607,7 +5607,7 @@
         <v>273</v>
       </c>
       <c r="H65" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="I65" t="s">
         <v>389</v>
@@ -5634,7 +5634,7 @@
         <v>474</v>
       </c>
       <c r="Q65" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="R65" t="s">
         <v>475</v>
@@ -5784,16 +5784,16 @@
         <v>323</v>
       </c>
       <c r="H68" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="I68" t="s">
         <v>390</v>
       </c>
       <c r="J68" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K68" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="L68" t="s">
         <v>475</v>
@@ -5843,13 +5843,13 @@
         <v>232</v>
       </c>
       <c r="H69" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="I69" t="s">
         <v>391</v>
       </c>
       <c r="J69" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K69" t="s">
         <v>391</v>
@@ -5870,7 +5870,7 @@
         <v>472</v>
       </c>
       <c r="Q69" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="R69" t="s">
         <v>475</v>
@@ -5958,25 +5958,25 @@
         <v>261</v>
       </c>
       <c r="G71" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H71" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="I71" t="s">
         <v>393</v>
       </c>
       <c r="J71" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K71" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L71" t="s">
         <v>473</v>
       </c>
       <c r="M71" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="N71" t="s">
         <v>475</v>
@@ -6079,13 +6079,13 @@
         <v>239</v>
       </c>
       <c r="H73" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="I73" t="s">
         <v>394</v>
       </c>
       <c r="J73" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K73" t="s">
         <v>262</v>
@@ -6106,7 +6106,7 @@
         <v>473</v>
       </c>
       <c r="Q73" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="R73" t="s">
         <v>475</v>
@@ -6197,16 +6197,16 @@
         <v>240</v>
       </c>
       <c r="H75" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="I75" t="s">
         <v>395</v>
       </c>
       <c r="J75" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K75" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="L75" t="s">
         <v>475</v>
@@ -6315,16 +6315,16 @@
         <v>337</v>
       </c>
       <c r="H77" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="I77" t="s">
         <v>396</v>
       </c>
       <c r="J77" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K77" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="L77" t="s">
         <v>475</v>
@@ -6489,16 +6489,16 @@
         <v>265</v>
       </c>
       <c r="G80" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="H80" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="I80" t="s">
         <v>397</v>
       </c>
       <c r="J80" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K80" t="s">
         <v>397</v>
@@ -6507,7 +6507,7 @@
         <v>474</v>
       </c>
       <c r="M80" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="N80" t="s">
         <v>473</v>
@@ -6519,7 +6519,7 @@
         <v>472</v>
       </c>
       <c r="Q80" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="R80" t="s">
         <v>475</v>
@@ -6666,16 +6666,16 @@
         <v>266</v>
       </c>
       <c r="G83" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="H83" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I83" t="s">
         <v>398</v>
       </c>
       <c r="J83" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K83" t="s">
         <v>398</v>
@@ -6684,7 +6684,7 @@
         <v>474</v>
       </c>
       <c r="M83" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N83" t="s">
         <v>475</v>
@@ -6696,7 +6696,7 @@
         <v>472</v>
       </c>
       <c r="Q83" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="R83" t="s">
         <v>473</v>
@@ -6728,13 +6728,13 @@
         <v>318</v>
       </c>
       <c r="H84" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="I84" t="s">
         <v>399</v>
       </c>
       <c r="J84" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K84" t="s">
         <v>399</v>
@@ -6743,7 +6743,7 @@
         <v>474</v>
       </c>
       <c r="M84" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="N84" t="s">
         <v>475</v>
@@ -6787,13 +6787,13 @@
         <v>270</v>
       </c>
       <c r="H85" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="I85" t="s">
         <v>400</v>
       </c>
       <c r="J85" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K85" t="s">
         <v>268</v>
@@ -6814,7 +6814,7 @@
         <v>474</v>
       </c>
       <c r="Q85" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="R85" t="s">
         <v>475</v>
@@ -6843,10 +6843,10 @@
         <v>269</v>
       </c>
       <c r="G86" t="s">
-        <v>213</v>
+        <v>321</v>
       </c>
       <c r="H86" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="I86" t="s">
         <v>401</v>
@@ -6861,13 +6861,13 @@
         <v>474</v>
       </c>
       <c r="M86" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="N86" t="s">
         <v>475</v>
       </c>
       <c r="O86" t="s">
-        <v>213</v>
+        <v>321</v>
       </c>
       <c r="P86" t="s">
         <v>473</v>
@@ -6905,7 +6905,7 @@
         <v>329</v>
       </c>
       <c r="H87" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="I87" t="s">
         <v>402</v>
@@ -6926,7 +6926,7 @@
         <v>476</v>
       </c>
       <c r="O87" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="P87" t="s">
         <v>475</v>
@@ -6961,19 +6961,19 @@
         <v>271</v>
       </c>
       <c r="G88" t="s">
-        <v>226</v>
+        <v>305</v>
       </c>
       <c r="H88" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="I88" t="s">
         <v>403</v>
       </c>
       <c r="J88" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K88" t="s">
-        <v>226</v>
+        <v>305</v>
       </c>
       <c r="L88" t="s">
         <v>473</v>
@@ -6991,7 +6991,7 @@
         <v>472</v>
       </c>
       <c r="Q88" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="R88" t="s">
         <v>475</v>
@@ -7256,19 +7256,19 @@
         <v>272</v>
       </c>
       <c r="G93" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="H93" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="I93" t="s">
         <v>404</v>
       </c>
       <c r="J93" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K93" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="L93" t="s">
         <v>473</v>
@@ -7286,7 +7286,7 @@
         <v>472</v>
       </c>
       <c r="Q93" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="R93" t="s">
         <v>475</v>
@@ -7318,16 +7318,16 @@
         <v>324</v>
       </c>
       <c r="H94" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="I94" t="s">
         <v>405</v>
       </c>
       <c r="J94" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K94" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="L94" t="s">
         <v>475</v>
@@ -7374,16 +7374,16 @@
         <v>274</v>
       </c>
       <c r="G95" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="H95" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="I95" t="s">
         <v>406</v>
       </c>
       <c r="J95" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K95" t="s">
         <v>274</v>
@@ -7398,13 +7398,13 @@
         <v>474</v>
       </c>
       <c r="O95" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="P95" t="s">
         <v>473</v>
       </c>
       <c r="Q95" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="R95" t="s">
         <v>475</v>
@@ -7436,13 +7436,13 @@
         <v>279</v>
       </c>
       <c r="H96" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="I96" t="s">
         <v>407</v>
       </c>
       <c r="J96" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K96" t="s">
         <v>275</v>
@@ -7463,7 +7463,7 @@
         <v>474</v>
       </c>
       <c r="Q96" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="R96" t="s">
         <v>475</v>
@@ -7495,13 +7495,13 @@
         <v>287</v>
       </c>
       <c r="H97" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="I97" t="s">
         <v>408</v>
       </c>
       <c r="J97" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K97" t="s">
         <v>276</v>
@@ -7522,7 +7522,7 @@
         <v>474</v>
       </c>
       <c r="Q97" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="R97" t="s">
         <v>475</v>
@@ -7669,7 +7669,7 @@
         <v>277</v>
       </c>
       <c r="G100" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="H100" t="s">
         <v>268</v>
@@ -7693,7 +7693,7 @@
         <v>472</v>
       </c>
       <c r="O100" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="P100" t="s">
         <v>473</v>
@@ -7731,7 +7731,7 @@
         <v>284</v>
       </c>
       <c r="H101" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="I101" t="s">
         <v>410</v>
@@ -7740,7 +7740,7 @@
         <v>342</v>
       </c>
       <c r="K101" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="L101" t="s">
         <v>475</v>
@@ -7790,7 +7790,7 @@
         <v>309</v>
       </c>
       <c r="H102" t="s">
-        <v>238</v>
+        <v>306</v>
       </c>
       <c r="I102" t="s">
         <v>411</v>
@@ -7799,7 +7799,7 @@
         <v>343</v>
       </c>
       <c r="K102" t="s">
-        <v>238</v>
+        <v>306</v>
       </c>
       <c r="L102" t="s">
         <v>475</v>
@@ -7905,10 +7905,10 @@
         <v>280</v>
       </c>
       <c r="G104" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="H104" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="I104" t="s">
         <v>412</v>
@@ -7917,13 +7917,13 @@
         <v>340</v>
       </c>
       <c r="K104" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="L104" t="s">
         <v>473</v>
       </c>
       <c r="M104" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="N104" t="s">
         <v>475</v>
@@ -7964,7 +7964,7 @@
         <v>281</v>
       </c>
       <c r="G105" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="H105" t="s">
         <v>314</v>
@@ -7976,7 +7976,7 @@
         <v>343</v>
       </c>
       <c r="K105" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="L105" t="s">
         <v>473</v>
@@ -8023,25 +8023,25 @@
         <v>282</v>
       </c>
       <c r="G106" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="H106" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="I106" t="s">
         <v>414</v>
       </c>
       <c r="J106" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K106" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="L106" t="s">
         <v>473</v>
       </c>
       <c r="M106" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="N106" t="s">
         <v>475</v>
@@ -8085,7 +8085,7 @@
         <v>326</v>
       </c>
       <c r="H107" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="I107" t="s">
         <v>415</v>
@@ -8100,7 +8100,7 @@
         <v>473</v>
       </c>
       <c r="M107" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="N107" t="s">
         <v>475</v>
@@ -8203,13 +8203,13 @@
         <v>312</v>
       </c>
       <c r="H109" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="I109" t="s">
         <v>416</v>
       </c>
       <c r="J109" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K109" t="s">
         <v>284</v>
@@ -8224,7 +8224,7 @@
         <v>474</v>
       </c>
       <c r="O109" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="P109" t="s">
         <v>475</v>
@@ -8259,7 +8259,7 @@
         <v>285</v>
       </c>
       <c r="G110" t="s">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="H110" t="s">
         <v>288</v>
@@ -8271,7 +8271,7 @@
         <v>343</v>
       </c>
       <c r="K110" t="s">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="L110" t="s">
         <v>473</v>
@@ -8318,7 +8318,7 @@
         <v>286</v>
       </c>
       <c r="G111" t="s">
-        <v>228</v>
+        <v>297</v>
       </c>
       <c r="H111" t="s">
         <v>287</v>
@@ -8336,7 +8336,7 @@
         <v>474</v>
       </c>
       <c r="M111" t="s">
-        <v>228</v>
+        <v>297</v>
       </c>
       <c r="N111" t="s">
         <v>473</v>
@@ -8439,7 +8439,7 @@
         <v>278</v>
       </c>
       <c r="H113" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="I113" t="s">
         <v>419</v>
@@ -8466,7 +8466,7 @@
         <v>472</v>
       </c>
       <c r="Q113" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="R113" t="s">
         <v>475</v>
@@ -8557,7 +8557,7 @@
         <v>317</v>
       </c>
       <c r="H115" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="I115" t="s">
         <v>420</v>
@@ -8566,7 +8566,7 @@
         <v>341</v>
       </c>
       <c r="K115" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="L115" t="s">
         <v>475</v>
@@ -8613,16 +8613,16 @@
         <v>289</v>
       </c>
       <c r="G116" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="H116" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I116" t="s">
         <v>421</v>
       </c>
       <c r="J116" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K116" t="s">
         <v>289</v>
@@ -8631,13 +8631,13 @@
         <v>472</v>
       </c>
       <c r="M116" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="N116" t="s">
         <v>473</v>
       </c>
       <c r="O116" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P116" t="s">
         <v>475</v>
@@ -8734,7 +8734,7 @@
         <v>246</v>
       </c>
       <c r="H118" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
       <c r="I118" t="s">
         <v>422</v>
@@ -8755,7 +8755,7 @@
         <v>474</v>
       </c>
       <c r="O118" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
       <c r="P118" t="s">
         <v>475</v>
@@ -8793,16 +8793,16 @@
         <v>251</v>
       </c>
       <c r="H119" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
       <c r="I119" t="s">
         <v>423</v>
       </c>
       <c r="J119" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K119" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
       <c r="L119" t="s">
         <v>475</v>
@@ -9088,16 +9088,16 @@
         <v>276</v>
       </c>
       <c r="H124" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="I124" t="s">
         <v>424</v>
       </c>
       <c r="J124" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K124" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="L124" t="s">
         <v>475</v>
@@ -9203,16 +9203,16 @@
         <v>293</v>
       </c>
       <c r="G126" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="H126" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="I126" t="s">
         <v>425</v>
       </c>
       <c r="J126" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K126" t="s">
         <v>425</v>
@@ -9221,7 +9221,7 @@
         <v>474</v>
       </c>
       <c r="M126" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="N126" t="s">
         <v>475</v>
@@ -9233,7 +9233,7 @@
         <v>472</v>
       </c>
       <c r="Q126" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="R126" t="s">
         <v>473</v>
@@ -9262,7 +9262,7 @@
         <v>294</v>
       </c>
       <c r="G127" t="s">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="H127" t="s">
         <v>252</v>
@@ -9286,7 +9286,7 @@
         <v>474</v>
       </c>
       <c r="O127" t="s">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="P127" t="s">
         <v>473</v>
@@ -9321,19 +9321,19 @@
         <v>295</v>
       </c>
       <c r="G128" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="H128" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="I128" t="s">
         <v>427</v>
       </c>
       <c r="J128" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K128" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="L128" t="s">
         <v>475</v>
@@ -9351,7 +9351,7 @@
         <v>472</v>
       </c>
       <c r="Q128" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="R128" t="s">
         <v>473</v>
@@ -9498,16 +9498,16 @@
         <v>296</v>
       </c>
       <c r="G131" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H131" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="I131" t="s">
         <v>428</v>
       </c>
       <c r="J131" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K131" t="s">
         <v>296</v>
@@ -9516,13 +9516,13 @@
         <v>472</v>
       </c>
       <c r="M131" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N131" t="s">
         <v>473</v>
       </c>
       <c r="O131" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="P131" t="s">
         <v>475</v>
@@ -9557,19 +9557,19 @@
         <v>297</v>
       </c>
       <c r="G132" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="H132" t="s">
-        <v>229</v>
+        <v>326</v>
       </c>
       <c r="I132" t="s">
         <v>429</v>
       </c>
       <c r="J132" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K132" t="s">
-        <v>229</v>
+        <v>326</v>
       </c>
       <c r="L132" t="s">
         <v>475</v>
@@ -9587,7 +9587,7 @@
         <v>472</v>
       </c>
       <c r="Q132" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="R132" t="s">
         <v>473</v>
@@ -9619,13 +9619,13 @@
         <v>254</v>
       </c>
       <c r="H133" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="I133" t="s">
         <v>430</v>
       </c>
       <c r="J133" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K133" t="s">
         <v>254</v>
@@ -9646,7 +9646,7 @@
         <v>474</v>
       </c>
       <c r="Q133" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="R133" t="s">
         <v>475</v>
@@ -9675,19 +9675,19 @@
         <v>299</v>
       </c>
       <c r="G134" t="s">
-        <v>285</v>
+        <v>218</v>
       </c>
       <c r="H134" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I134" t="s">
         <v>431</v>
       </c>
       <c r="J134" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K134" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L134" t="s">
         <v>475</v>
@@ -9699,7 +9699,7 @@
         <v>472</v>
       </c>
       <c r="O134" t="s">
-        <v>285</v>
+        <v>218</v>
       </c>
       <c r="P134" t="s">
         <v>473</v>
@@ -9737,13 +9737,13 @@
         <v>241</v>
       </c>
       <c r="H135" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="I135" t="s">
         <v>432</v>
       </c>
       <c r="J135" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K135" t="s">
         <v>432</v>
@@ -9764,7 +9764,7 @@
         <v>473</v>
       </c>
       <c r="Q135" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="R135" t="s">
         <v>475</v>
@@ -9852,19 +9852,19 @@
         <v>301</v>
       </c>
       <c r="G137" t="s">
-        <v>315</v>
+        <v>213</v>
       </c>
       <c r="H137" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="I137" t="s">
         <v>433</v>
       </c>
       <c r="J137" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K137" t="s">
-        <v>315</v>
+        <v>213</v>
       </c>
       <c r="L137" t="s">
         <v>473</v>
@@ -9882,7 +9882,7 @@
         <v>472</v>
       </c>
       <c r="Q137" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="R137" t="s">
         <v>475</v>
@@ -9911,19 +9911,19 @@
         <v>302</v>
       </c>
       <c r="G138" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="H138" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="I138" t="s">
         <v>434</v>
       </c>
       <c r="J138" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K138" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="L138" t="s">
         <v>475</v>
@@ -9935,7 +9935,7 @@
         <v>474</v>
       </c>
       <c r="O138" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="P138" t="s">
         <v>473</v>
@@ -10147,16 +10147,16 @@
         <v>303</v>
       </c>
       <c r="G142" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="H142" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="I142" t="s">
         <v>435</v>
       </c>
       <c r="J142" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K142" t="s">
         <v>303</v>
@@ -10171,13 +10171,13 @@
         <v>474</v>
       </c>
       <c r="O142" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="P142" t="s">
         <v>473</v>
       </c>
       <c r="Q142" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="R142" t="s">
         <v>475</v>
@@ -10268,16 +10268,16 @@
         <v>322</v>
       </c>
       <c r="H144" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="I144" t="s">
         <v>436</v>
       </c>
       <c r="J144" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K144" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="L144" t="s">
         <v>475</v>
@@ -10324,16 +10324,16 @@
         <v>305</v>
       </c>
       <c r="G145" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="H145" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="I145" t="s">
         <v>437</v>
       </c>
       <c r="J145" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K145" t="s">
         <v>437</v>
@@ -10342,7 +10342,7 @@
         <v>474</v>
       </c>
       <c r="M145" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="N145" t="s">
         <v>475</v>
@@ -10354,7 +10354,7 @@
         <v>472</v>
       </c>
       <c r="Q145" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="R145" t="s">
         <v>473</v>
@@ -10386,7 +10386,7 @@
         <v>314</v>
       </c>
       <c r="H146" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="I146" t="s">
         <v>438</v>
@@ -10407,7 +10407,7 @@
         <v>474</v>
       </c>
       <c r="O146" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="P146" t="s">
         <v>475</v>
@@ -10501,19 +10501,19 @@
         <v>307</v>
       </c>
       <c r="G148" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="H148" t="s">
-        <v>337</v>
+        <v>261</v>
       </c>
       <c r="I148" t="s">
         <v>439</v>
       </c>
       <c r="J148" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K148" t="s">
-        <v>337</v>
+        <v>261</v>
       </c>
       <c r="L148" t="s">
         <v>475</v>
@@ -10525,7 +10525,7 @@
         <v>474</v>
       </c>
       <c r="O148" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="P148" t="s">
         <v>473</v>
@@ -10563,16 +10563,16 @@
         <v>211</v>
       </c>
       <c r="H149" t="s">
-        <v>218</v>
+        <v>290</v>
       </c>
       <c r="I149" t="s">
         <v>440</v>
       </c>
       <c r="J149" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K149" t="s">
-        <v>218</v>
+        <v>290</v>
       </c>
       <c r="L149" t="s">
         <v>475</v>
@@ -10622,13 +10622,13 @@
         <v>253</v>
       </c>
       <c r="H150" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="I150" t="s">
         <v>441</v>
       </c>
       <c r="J150" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K150" t="s">
         <v>253</v>
@@ -10649,7 +10649,7 @@
         <v>472</v>
       </c>
       <c r="Q150" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="R150" t="s">
         <v>475</v>
@@ -10678,16 +10678,16 @@
         <v>310</v>
       </c>
       <c r="G151" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="H151" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="I151" t="s">
         <v>442</v>
       </c>
       <c r="J151" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K151" t="s">
         <v>310</v>
@@ -10696,13 +10696,13 @@
         <v>472</v>
       </c>
       <c r="M151" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="N151" t="s">
         <v>475</v>
       </c>
       <c r="O151" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="P151" t="s">
         <v>473</v>
@@ -10737,10 +10737,10 @@
         <v>311</v>
       </c>
       <c r="G152" t="s">
-        <v>274</v>
+        <v>336</v>
       </c>
       <c r="H152" t="s">
-        <v>227</v>
+        <v>327</v>
       </c>
       <c r="I152" t="s">
         <v>443</v>
@@ -10755,7 +10755,7 @@
         <v>472</v>
       </c>
       <c r="M152" t="s">
-        <v>274</v>
+        <v>336</v>
       </c>
       <c r="N152" t="s">
         <v>473</v>
@@ -10767,7 +10767,7 @@
         <v>474</v>
       </c>
       <c r="Q152" t="s">
-        <v>227</v>
+        <v>327</v>
       </c>
       <c r="R152" t="s">
         <v>475</v>
@@ -10858,7 +10858,7 @@
         <v>268</v>
       </c>
       <c r="H154" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="I154" t="s">
         <v>444</v>
@@ -10867,7 +10867,7 @@
         <v>341</v>
       </c>
       <c r="K154" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="L154" t="s">
         <v>475</v>
@@ -10917,16 +10917,16 @@
         <v>258</v>
       </c>
       <c r="H155" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="I155" t="s">
         <v>445</v>
       </c>
       <c r="J155" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K155" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="L155" t="s">
         <v>475</v>
@@ -10976,7 +10976,7 @@
         <v>252</v>
       </c>
       <c r="H156" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="I156" t="s">
         <v>446</v>
@@ -10985,7 +10985,7 @@
         <v>341</v>
       </c>
       <c r="K156" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="L156" t="s">
         <v>475</v>
@@ -11091,10 +11091,10 @@
         <v>315</v>
       </c>
       <c r="G158" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="H158" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="I158" t="s">
         <v>447</v>
@@ -11109,7 +11109,7 @@
         <v>472</v>
       </c>
       <c r="M158" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="N158" t="s">
         <v>475</v>
@@ -11121,7 +11121,7 @@
         <v>474</v>
       </c>
       <c r="Q158" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="R158" t="s">
         <v>473</v>
@@ -11153,13 +11153,13 @@
         <v>231</v>
       </c>
       <c r="H159" t="s">
-        <v>232</v>
+        <v>310</v>
       </c>
       <c r="I159" t="s">
         <v>448</v>
       </c>
       <c r="J159" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K159" t="s">
         <v>316</v>
@@ -11168,7 +11168,7 @@
         <v>472</v>
       </c>
       <c r="M159" t="s">
-        <v>232</v>
+        <v>310</v>
       </c>
       <c r="N159" t="s">
         <v>475</v>
@@ -11212,13 +11212,13 @@
         <v>221</v>
       </c>
       <c r="H160" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I160" t="s">
         <v>449</v>
       </c>
       <c r="J160" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K160" t="s">
         <v>449</v>
@@ -11233,7 +11233,7 @@
         <v>473</v>
       </c>
       <c r="O160" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="P160" t="s">
         <v>475</v>
@@ -11271,13 +11271,13 @@
         <v>262</v>
       </c>
       <c r="H161" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="I161" t="s">
         <v>450</v>
       </c>
       <c r="J161" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K161" t="s">
         <v>450</v>
@@ -11286,7 +11286,7 @@
         <v>474</v>
       </c>
       <c r="M161" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="N161" t="s">
         <v>475</v>
@@ -11386,7 +11386,7 @@
         <v>319</v>
       </c>
       <c r="G163" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H163" t="s">
         <v>270</v>
@@ -11416,7 +11416,7 @@
         <v>475</v>
       </c>
       <c r="Q163" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="R163" t="s">
         <v>473</v>
@@ -11507,16 +11507,16 @@
         <v>244</v>
       </c>
       <c r="H165" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="I165" t="s">
         <v>452</v>
       </c>
       <c r="J165" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K165" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="L165" t="s">
         <v>475</v>
@@ -11563,10 +11563,10 @@
         <v>321</v>
       </c>
       <c r="G166" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="H166" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="I166" t="s">
         <v>453</v>
@@ -11587,13 +11587,13 @@
         <v>474</v>
       </c>
       <c r="O166" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="P166" t="s">
         <v>473</v>
       </c>
       <c r="Q166" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="R166" t="s">
         <v>475</v>
@@ -11625,16 +11625,16 @@
         <v>217</v>
       </c>
       <c r="H167" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="I167" t="s">
         <v>454</v>
       </c>
       <c r="J167" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K167" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="L167" t="s">
         <v>475</v>
@@ -11684,16 +11684,16 @@
         <v>233</v>
       </c>
       <c r="H168" t="s">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="I168" t="s">
         <v>455</v>
       </c>
       <c r="J168" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K168" t="s">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="L168" t="s">
         <v>475</v>
@@ -11743,13 +11743,13 @@
         <v>331</v>
       </c>
       <c r="H169" t="s">
-        <v>274</v>
+        <v>335</v>
       </c>
       <c r="I169" t="s">
         <v>456</v>
       </c>
       <c r="J169" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K169" t="s">
         <v>331</v>
@@ -11758,7 +11758,7 @@
         <v>473</v>
       </c>
       <c r="M169" t="s">
-        <v>274</v>
+        <v>335</v>
       </c>
       <c r="N169" t="s">
         <v>475</v>
@@ -11858,19 +11858,19 @@
         <v>325</v>
       </c>
       <c r="G171" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="H171" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="I171" t="s">
         <v>457</v>
       </c>
       <c r="J171" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K171" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="L171" t="s">
         <v>475</v>
@@ -11882,7 +11882,7 @@
         <v>474</v>
       </c>
       <c r="O171" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="P171" t="s">
         <v>473</v>
@@ -11979,13 +11979,13 @@
         <v>216</v>
       </c>
       <c r="H173" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="I173" t="s">
         <v>458</v>
       </c>
       <c r="J173" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K173" t="s">
         <v>458</v>
@@ -11994,7 +11994,7 @@
         <v>474</v>
       </c>
       <c r="M173" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="N173" t="s">
         <v>475</v>
@@ -12038,13 +12038,13 @@
         <v>313</v>
       </c>
       <c r="H174" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="I174" t="s">
         <v>459</v>
       </c>
       <c r="J174" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K174" t="s">
         <v>327</v>
@@ -12059,7 +12059,7 @@
         <v>474</v>
       </c>
       <c r="O174" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="P174" t="s">
         <v>475</v>
@@ -12156,13 +12156,13 @@
         <v>225</v>
       </c>
       <c r="H176" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="I176" t="s">
         <v>460</v>
       </c>
       <c r="J176" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K176" t="s">
         <v>328</v>
@@ -12171,7 +12171,7 @@
         <v>472</v>
       </c>
       <c r="M176" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="N176" t="s">
         <v>475</v>
@@ -12215,13 +12215,13 @@
         <v>238</v>
       </c>
       <c r="H177" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="I177" t="s">
         <v>461</v>
       </c>
       <c r="J177" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K177" t="s">
         <v>238</v>
@@ -12236,7 +12236,7 @@
         <v>472</v>
       </c>
       <c r="O177" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="P177" t="s">
         <v>475</v>
@@ -12271,16 +12271,16 @@
         <v>330</v>
       </c>
       <c r="G178" t="s">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="H178" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="I178" t="s">
         <v>462</v>
       </c>
       <c r="J178" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K178" t="s">
         <v>330</v>
@@ -12289,13 +12289,13 @@
         <v>472</v>
       </c>
       <c r="M178" t="s">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="N178" t="s">
         <v>473</v>
       </c>
       <c r="O178" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="P178" t="s">
         <v>475</v>
@@ -12333,13 +12333,13 @@
         <v>257</v>
       </c>
       <c r="H179" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="I179" t="s">
         <v>463</v>
       </c>
       <c r="J179" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K179" t="s">
         <v>331</v>
@@ -12360,7 +12360,7 @@
         <v>474</v>
       </c>
       <c r="Q179" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="R179" t="s">
         <v>475</v>
@@ -12448,25 +12448,25 @@
         <v>332</v>
       </c>
       <c r="G181" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="H181" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="I181" t="s">
         <v>464</v>
       </c>
       <c r="J181" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K181" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="L181" t="s">
         <v>475</v>
       </c>
       <c r="M181" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="N181" t="s">
         <v>473</v>
@@ -12507,16 +12507,16 @@
         <v>333</v>
       </c>
       <c r="G182" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
       <c r="H182" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="I182" t="s">
         <v>465</v>
       </c>
       <c r="J182" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K182" t="s">
         <v>333</v>
@@ -12525,7 +12525,7 @@
         <v>472</v>
       </c>
       <c r="M182" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
       <c r="N182" t="s">
         <v>473</v>
@@ -12537,7 +12537,7 @@
         <v>474</v>
       </c>
       <c r="Q182" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="R182" t="s">
         <v>475</v>
@@ -12743,10 +12743,10 @@
         <v>334</v>
       </c>
       <c r="G186" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H186" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I186" t="s">
         <v>466</v>
@@ -12761,7 +12761,7 @@
         <v>474</v>
       </c>
       <c r="M186" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="N186" t="s">
         <v>473</v>
@@ -12773,7 +12773,7 @@
         <v>472</v>
       </c>
       <c r="Q186" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="R186" t="s">
         <v>475</v>
@@ -12802,19 +12802,19 @@
         <v>335</v>
       </c>
       <c r="G187" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="H187" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="I187" t="s">
         <v>467</v>
       </c>
       <c r="J187" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K187" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="L187" t="s">
         <v>475</v>
@@ -12832,7 +12832,7 @@
         <v>472</v>
       </c>
       <c r="Q187" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="R187" t="s">
         <v>473</v>
@@ -12861,10 +12861,10 @@
         <v>336</v>
       </c>
       <c r="G188" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="H188" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="I188" t="s">
         <v>468</v>
@@ -12879,13 +12879,13 @@
         <v>472</v>
       </c>
       <c r="M188" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="N188" t="s">
         <v>473</v>
       </c>
       <c r="O188" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="P188" t="s">
         <v>475</v>
@@ -12923,16 +12923,16 @@
         <v>292</v>
       </c>
       <c r="H189" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="I189" t="s">
         <v>469</v>
       </c>
       <c r="J189" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K189" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="L189" t="s">
         <v>475</v>
@@ -13097,10 +13097,10 @@
         <v>338</v>
       </c>
       <c r="G192" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="H192" t="s">
-        <v>235</v>
+        <v>337</v>
       </c>
       <c r="I192" t="s">
         <v>470</v>
@@ -13115,7 +13115,7 @@
         <v>474</v>
       </c>
       <c r="M192" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="N192" t="s">
         <v>473</v>
@@ -13127,7 +13127,7 @@
         <v>472</v>
       </c>
       <c r="Q192" t="s">
-        <v>235</v>
+        <v>337</v>
       </c>
       <c r="R192" t="s">
         <v>475</v>
@@ -13156,25 +13156,25 @@
         <v>339</v>
       </c>
       <c r="G193" t="s">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="H193" t="s">
-        <v>304</v>
+        <v>233</v>
       </c>
       <c r="I193" t="s">
         <v>471</v>
       </c>
       <c r="J193" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K193" t="s">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="L193" t="s">
         <v>473</v>
       </c>
       <c r="M193" t="s">
-        <v>304</v>
+        <v>233</v>
       </c>
       <c r="N193" t="s">
         <v>475</v>

--- a/sequences/01_retrieval_1.xlsx
+++ b/sequences/01_retrieval_1.xlsx
@@ -1051,385 +1051,385 @@
     <t>face/face212.jpg</t>
   </si>
   <si>
+    <t>face/face259.jpg</t>
+  </si>
+  <si>
+    <t>face/face245.jpg</t>
+  </si>
+  <si>
+    <t>house/house210.jpg</t>
+  </si>
+  <si>
+    <t>face/face158.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog099.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower174.jpg</t>
+  </si>
+  <si>
+    <t>house/house109.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower216.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower207.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog150.jpg</t>
+  </si>
+  <si>
+    <t>face/face108.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog256.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower238.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower130.jpg</t>
+  </si>
+  <si>
+    <t>face/face186.jpg</t>
+  </si>
+  <si>
+    <t>face/face207.jpg</t>
+  </si>
+  <si>
+    <t>face/face229.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog203.jpg</t>
+  </si>
+  <si>
+    <t>house/house208.jpg</t>
+  </si>
+  <si>
+    <t>house/house130.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog257.jpg</t>
+  </si>
+  <si>
+    <t>face/face149.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower196.jpg</t>
+  </si>
+  <si>
+    <t>face/face228.jpg</t>
+  </si>
+  <si>
+    <t>house/house151.jpg</t>
+  </si>
+  <si>
+    <t>face/face102.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower260.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog155.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower235.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower232.jpg</t>
+  </si>
+  <si>
+    <t>house/house097.jpg</t>
+  </si>
+  <si>
+    <t>house/house152.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower129.jpg</t>
+  </si>
+  <si>
+    <t>face/face164.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower204.jpg</t>
+  </si>
+  <si>
+    <t>face/face213.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog199.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog114.jpg</t>
+  </si>
+  <si>
+    <t>house/house120.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower162.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower248.jpg</t>
+  </si>
+  <si>
+    <t>face/face225.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog263.jpg</t>
+  </si>
+  <si>
+    <t>face/face178.jpg</t>
+  </si>
+  <si>
+    <t>house/house238.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog252.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog144.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog135.jpg</t>
+  </si>
+  <si>
+    <t>house/house209.jpg</t>
+  </si>
+  <si>
+    <t>house/house195.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower109.jpg</t>
+  </si>
+  <si>
+    <t>face/face235.jpg</t>
+  </si>
+  <si>
+    <t>face/face249.jpg</t>
+  </si>
+  <si>
+    <t>house/house244.jpg</t>
+  </si>
+  <si>
+    <t>house/house126.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog152.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower131.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower186.jpg</t>
+  </si>
+  <si>
+    <t>face/face214.jpg</t>
+  </si>
+  <si>
+    <t>face/face103.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower218.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower258.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog149.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog185.jpg</t>
+  </si>
+  <si>
+    <t>house/house198.jpg</t>
+  </si>
+  <si>
+    <t>face/face227.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower250.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog243.jpg</t>
+  </si>
+  <si>
     <t>house/house193.jpg</t>
   </si>
   <si>
+    <t>house/house168.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower185.jpg</t>
+  </si>
+  <si>
+    <t>house/house137.jpg</t>
+  </si>
+  <si>
+    <t>house/house112.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower120.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower127.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower223.jpg</t>
+  </si>
+  <si>
+    <t>house/house257.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog190.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog103.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower236.jpg</t>
+  </si>
+  <si>
+    <t>house/house245.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog151.jpg</t>
+  </si>
+  <si>
+    <t>face/face209.jpg</t>
+  </si>
+  <si>
+    <t>face/face130.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower141.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog200.jpg</t>
+  </si>
+  <si>
+    <t>house/house202.jpg</t>
+  </si>
+  <si>
+    <t>house/house164.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower152.jpg</t>
+  </si>
+  <si>
+    <t>face/face113.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower142.jpg</t>
+  </si>
+  <si>
+    <t>house/house107.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower153.jpg</t>
+  </si>
+  <si>
+    <t>house/house263.jpg</t>
+  </si>
+  <si>
+    <t>face/face216.jpg</t>
+  </si>
+  <si>
+    <t>house/house138.jpg</t>
+  </si>
+  <si>
+    <t>house/house221.jpg</t>
+  </si>
+  <si>
+    <t>face/face140.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog174.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog198.jpg</t>
+  </si>
+  <si>
+    <t>house/house236.jpg</t>
+  </si>
+  <si>
     <t>face/face185.jpg</t>
   </si>
   <si>
-    <t>face/face235.jpg</t>
-  </si>
-  <si>
-    <t>house/house152.jpg</t>
-  </si>
-  <si>
-    <t>face/face228.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog103.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog257.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower216.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog243.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower141.jpg</t>
-  </si>
-  <si>
-    <t>face/face158.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower131.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower238.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower196.jpg</t>
-  </si>
-  <si>
-    <t>house/house257.jpg</t>
-  </si>
-  <si>
-    <t>house/house245.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog185.jpg</t>
-  </si>
-  <si>
-    <t>house/house209.jpg</t>
-  </si>
-  <si>
-    <t>house/house195.jpg</t>
-  </si>
-  <si>
-    <t>face/face227.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog256.jpg</t>
-  </si>
-  <si>
-    <t>house/house097.jpg</t>
-  </si>
-  <si>
-    <t>face/face249.jpg</t>
-  </si>
-  <si>
-    <t>face/face113.jpg</t>
-  </si>
-  <si>
-    <t>face/face207.jpg</t>
+    <t>house/house170.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog161.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog241.jpg</t>
+  </si>
+  <si>
+    <t>face/face162.jpg</t>
+  </si>
+  <si>
+    <t>house/house132.jpg</t>
+  </si>
+  <si>
+    <t>house/house158.jpg</t>
+  </si>
+  <si>
+    <t>house/house227.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog244.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog132.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower111.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog112.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog207.jpg</t>
+  </si>
+  <si>
+    <t>face/face233.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog245.jpg</t>
   </si>
   <si>
     <t>face/face195.jpg</t>
   </si>
   <si>
-    <t>flower/flower236.jpg</t>
-  </si>
-  <si>
-    <t>house/house227.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower111.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower232.jpg</t>
+    <t>flower/flower168.jpg</t>
+  </si>
+  <si>
+    <t>face/face192.jpg</t>
+  </si>
+  <si>
+    <t>face/face250.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog229.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog195.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower193.jpg</t>
+  </si>
+  <si>
+    <t>face/face194.jpg</t>
+  </si>
+  <si>
+    <t>house/house251.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower146.jpg</t>
   </si>
   <si>
     <t>dog/dog253.jpg</t>
-  </si>
-  <si>
-    <t>face/face108.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower248.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog245.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog132.jpg</t>
-  </si>
-  <si>
-    <t>house/house210.jpg</t>
-  </si>
-  <si>
-    <t>face/face250.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog151.jpg</t>
-  </si>
-  <si>
-    <t>house/house138.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower162.jpg</t>
-  </si>
-  <si>
-    <t>face/face149.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog195.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog150.jpg</t>
-  </si>
-  <si>
-    <t>house/house244.jpg</t>
-  </si>
-  <si>
-    <t>face/face259.jpg</t>
-  </si>
-  <si>
-    <t>face/face162.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower146.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog155.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog203.jpg</t>
-  </si>
-  <si>
-    <t>face/face103.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower235.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower109.jpg</t>
-  </si>
-  <si>
-    <t>house/house158.jpg</t>
-  </si>
-  <si>
-    <t>face/face213.jpg</t>
-  </si>
-  <si>
-    <t>house/house221.jpg</t>
-  </si>
-  <si>
-    <t>house/house164.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower250.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower186.jpg</t>
-  </si>
-  <si>
-    <t>house/house251.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog199.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower218.jpg</t>
-  </si>
-  <si>
-    <t>house/house151.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog099.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog198.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog174.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog207.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower127.jpg</t>
-  </si>
-  <si>
-    <t>face/face102.jpg</t>
-  </si>
-  <si>
-    <t>house/house120.jpg</t>
-  </si>
-  <si>
-    <t>face/face245.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog114.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog152.jpg</t>
-  </si>
-  <si>
-    <t>face/face140.jpg</t>
-  </si>
-  <si>
-    <t>house/house198.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower174.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower223.jpg</t>
-  </si>
-  <si>
-    <t>face/face186.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog241.jpg</t>
-  </si>
-  <si>
-    <t>house/house112.jpg</t>
-  </si>
-  <si>
-    <t>house/house130.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower260.jpg</t>
-  </si>
-  <si>
-    <t>face/face194.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower120.jpg</t>
-  </si>
-  <si>
-    <t>house/house126.jpg</t>
-  </si>
-  <si>
-    <t>face/face192.jpg</t>
-  </si>
-  <si>
-    <t>face/face216.jpg</t>
-  </si>
-  <si>
-    <t>face/face214.jpg</t>
-  </si>
-  <si>
-    <t>house/house137.jpg</t>
-  </si>
-  <si>
-    <t>face/face233.jpg</t>
-  </si>
-  <si>
-    <t>house/house107.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog135.jpg</t>
-  </si>
-  <si>
-    <t>house/house263.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog144.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog149.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower152.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog161.jpg</t>
-  </si>
-  <si>
-    <t>face/face164.jpg</t>
-  </si>
-  <si>
-    <t>house/house109.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog190.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower258.jpg</t>
-  </si>
-  <si>
-    <t>house/house170.jpg</t>
-  </si>
-  <si>
-    <t>house/house168.jpg</t>
-  </si>
-  <si>
-    <t>face/face178.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog229.jpg</t>
-  </si>
-  <si>
-    <t>face/face209.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower130.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog200.jpg</t>
-  </si>
-  <si>
-    <t>house/house238.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog252.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog244.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower204.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog263.jpg</t>
-  </si>
-  <si>
-    <t>house/house236.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower153.jpg</t>
-  </si>
-  <si>
-    <t>house/house202.jpg</t>
-  </si>
-  <si>
-    <t>house/house208.jpg</t>
-  </si>
-  <si>
-    <t>face/face225.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower168.jpg</t>
-  </si>
-  <si>
-    <t>house/house132.jpg</t>
-  </si>
-  <si>
-    <t>face/face130.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower185.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog112.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower207.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower142.jpg</t>
-  </si>
-  <si>
-    <t>face/face229.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower193.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower129.jpg</t>
   </si>
   <si>
     <t>other/old/uncued</t>
@@ -1890,7 +1890,7 @@
         <v>298</v>
       </c>
       <c r="H2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="I2" t="s">
         <v>344</v>
@@ -1899,7 +1899,7 @@
         <v>343</v>
       </c>
       <c r="K2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="L2" t="s">
         <v>472</v>
@@ -1949,13 +1949,13 @@
         <v>245</v>
       </c>
       <c r="H3" t="s">
-        <v>336</v>
+        <v>250</v>
       </c>
       <c r="I3" t="s">
         <v>345</v>
       </c>
       <c r="J3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K3" t="s">
         <v>345</v>
@@ -1970,7 +1970,7 @@
         <v>474</v>
       </c>
       <c r="O3" t="s">
-        <v>336</v>
+        <v>250</v>
       </c>
       <c r="P3" t="s">
         <v>472</v>
@@ -2126,7 +2126,7 @@
         <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="I6" t="s">
         <v>346</v>
@@ -2153,7 +2153,7 @@
         <v>475</v>
       </c>
       <c r="Q6" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="R6" t="s">
         <v>472</v>
@@ -2185,13 +2185,13 @@
         <v>338</v>
       </c>
       <c r="H7" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="I7" t="s">
         <v>347</v>
       </c>
       <c r="J7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K7" t="s">
         <v>347</v>
@@ -2212,7 +2212,7 @@
         <v>475</v>
       </c>
       <c r="Q7" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="R7" t="s">
         <v>472</v>
@@ -2303,13 +2303,13 @@
         <v>310</v>
       </c>
       <c r="H9" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="I9" t="s">
         <v>348</v>
       </c>
       <c r="J9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K9" t="s">
         <v>310</v>
@@ -2324,7 +2324,7 @@
         <v>473</v>
       </c>
       <c r="O9" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="P9" t="s">
         <v>472</v>
@@ -2362,13 +2362,13 @@
         <v>296</v>
       </c>
       <c r="H10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I10" t="s">
         <v>349</v>
       </c>
       <c r="J10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K10" t="s">
         <v>217</v>
@@ -2389,7 +2389,7 @@
         <v>473</v>
       </c>
       <c r="Q10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="R10" t="s">
         <v>472</v>
@@ -2471,25 +2471,25 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>218</v>
       </c>
       <c r="G12" t="s">
-        <v>332</v>
+        <v>238</v>
       </c>
       <c r="H12" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="I12" t="s">
         <v>350</v>
       </c>
       <c r="J12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K12" t="s">
-        <v>332</v>
+        <v>238</v>
       </c>
       <c r="L12" t="s">
         <v>475</v>
@@ -2501,7 +2501,7 @@
         <v>473</v>
       </c>
       <c r="O12" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="P12" t="s">
         <v>472</v>
@@ -2510,7 +2510,7 @@
         <v>218</v>
       </c>
       <c r="R12" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S12">
         <v>1.134775852873516</v>
@@ -2530,22 +2530,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>219</v>
       </c>
       <c r="G13" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="H13" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="I13" t="s">
         <v>351</v>
       </c>
       <c r="J13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K13" t="s">
         <v>351</v>
@@ -2554,13 +2554,13 @@
         <v>473</v>
       </c>
       <c r="M13" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="N13" t="s">
         <v>472</v>
       </c>
       <c r="O13" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="P13" t="s">
         <v>475</v>
@@ -2569,7 +2569,7 @@
         <v>219</v>
       </c>
       <c r="R13" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S13">
         <v>1.115037862213843</v>
@@ -2589,16 +2589,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
         <v>220</v>
       </c>
       <c r="G14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H14" t="s">
-        <v>317</v>
+        <v>251</v>
       </c>
       <c r="I14" t="s">
         <v>352</v>
@@ -2607,13 +2607,13 @@
         <v>340</v>
       </c>
       <c r="K14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L14" t="s">
         <v>475</v>
       </c>
       <c r="M14" t="s">
-        <v>317</v>
+        <v>251</v>
       </c>
       <c r="N14" t="s">
         <v>472</v>
@@ -2628,7 +2628,7 @@
         <v>220</v>
       </c>
       <c r="R14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="S14">
         <v>1.149190243648563</v>
@@ -2648,25 +2648,25 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>221</v>
       </c>
       <c r="G15" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="H15" t="s">
-        <v>338</v>
+        <v>258</v>
       </c>
       <c r="I15" t="s">
         <v>353</v>
       </c>
       <c r="J15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K15" t="s">
-        <v>338</v>
+        <v>258</v>
       </c>
       <c r="L15" t="s">
         <v>472</v>
@@ -2675,10 +2675,10 @@
         <v>221</v>
       </c>
       <c r="N15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O15" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="P15" t="s">
         <v>475</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>222</v>
       </c>
       <c r="G17" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="H17" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="I17" t="s">
         <v>354</v>
       </c>
       <c r="J17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K17" t="s">
         <v>354</v>
@@ -2790,13 +2790,13 @@
         <v>473</v>
       </c>
       <c r="M17" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="N17" t="s">
         <v>475</v>
       </c>
       <c r="O17" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="P17" t="s">
         <v>472</v>
@@ -2805,7 +2805,7 @@
         <v>222</v>
       </c>
       <c r="R17" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S17">
         <v>1.006233008272824</v>
@@ -2825,16 +2825,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>223</v>
       </c>
       <c r="G18" t="s">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="H18" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="I18" t="s">
         <v>355</v>
@@ -2843,7 +2843,7 @@
         <v>343</v>
       </c>
       <c r="K18" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="L18" t="s">
         <v>472</v>
@@ -2852,10 +2852,10 @@
         <v>223</v>
       </c>
       <c r="N18" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O18" t="s">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="P18" t="s">
         <v>475</v>
@@ -2884,31 +2884,31 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>224</v>
       </c>
       <c r="G19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H19" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="I19" t="s">
         <v>356</v>
       </c>
       <c r="J19" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L19" t="s">
         <v>475</v>
       </c>
       <c r="M19" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="N19" t="s">
         <v>472</v>
@@ -2923,7 +2923,7 @@
         <v>224</v>
       </c>
       <c r="R19" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S19">
         <v>1.092158232689251</v>
@@ -3188,13 +3188,13 @@
         <v>309</v>
       </c>
       <c r="H24" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="I24" t="s">
         <v>359</v>
       </c>
       <c r="J24" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K24" t="s">
         <v>359</v>
@@ -3209,7 +3209,7 @@
         <v>475</v>
       </c>
       <c r="O24" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="P24" t="s">
         <v>472</v>
@@ -3247,13 +3247,13 @@
         <v>234</v>
       </c>
       <c r="H25" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="I25" t="s">
         <v>360</v>
       </c>
       <c r="J25" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K25" t="s">
         <v>360</v>
@@ -3274,7 +3274,7 @@
         <v>474</v>
       </c>
       <c r="Q25" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="R25" t="s">
         <v>472</v>
@@ -3365,13 +3365,13 @@
         <v>251</v>
       </c>
       <c r="H27" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="I27" t="s">
         <v>361</v>
       </c>
       <c r="J27" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K27" t="s">
         <v>361</v>
@@ -3386,7 +3386,7 @@
         <v>475</v>
       </c>
       <c r="O27" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="P27" t="s">
         <v>472</v>
@@ -3415,25 +3415,25 @@
         <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
         <v>230</v>
       </c>
       <c r="G28" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="H28" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="I28" t="s">
         <v>362</v>
       </c>
       <c r="J28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K28" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s">
         <v>472</v>
@@ -3448,10 +3448,10 @@
         <v>230</v>
       </c>
       <c r="P28" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="Q28" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="R28" t="s">
         <v>475</v>
@@ -3542,7 +3542,7 @@
         <v>282</v>
       </c>
       <c r="H30" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="I30" t="s">
         <v>363</v>
@@ -3557,7 +3557,7 @@
         <v>473</v>
       </c>
       <c r="M30" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="N30" t="s">
         <v>472</v>
@@ -3601,16 +3601,16 @@
         <v>252</v>
       </c>
       <c r="H31" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="I31" t="s">
         <v>364</v>
       </c>
       <c r="J31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K31" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s">
         <v>472</v>
@@ -3651,16 +3651,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>233</v>
       </c>
       <c r="G32" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="H32" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="I32" t="s">
         <v>365</v>
@@ -3675,13 +3675,13 @@
         <v>473</v>
       </c>
       <c r="M32" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="N32" t="s">
         <v>475</v>
       </c>
       <c r="O32" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="P32" t="s">
         <v>472</v>
@@ -3690,7 +3690,7 @@
         <v>233</v>
       </c>
       <c r="R32" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S32">
         <v>1.259962577464323</v>
@@ -3719,16 +3719,16 @@
         <v>314</v>
       </c>
       <c r="H33" t="s">
-        <v>334</v>
+        <v>247</v>
       </c>
       <c r="I33" t="s">
         <v>366</v>
       </c>
       <c r="J33" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K33" t="s">
-        <v>334</v>
+        <v>247</v>
       </c>
       <c r="L33" t="s">
         <v>472</v>
@@ -3769,25 +3769,25 @@
         <v>0</v>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
         <v>235</v>
       </c>
       <c r="G34" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="H34" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="I34" t="s">
         <v>367</v>
       </c>
       <c r="J34" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K34" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s">
         <v>472</v>
@@ -3799,7 +3799,7 @@
         <v>473</v>
       </c>
       <c r="O34" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="P34" t="s">
         <v>475</v>
@@ -3808,7 +3808,7 @@
         <v>235</v>
       </c>
       <c r="R34" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="S34">
         <v>1.142677885812448</v>
@@ -3887,16 +3887,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>236</v>
       </c>
       <c r="G36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H36" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="I36" t="s">
         <v>368</v>
@@ -3905,13 +3905,13 @@
         <v>343</v>
       </c>
       <c r="K36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s">
         <v>475</v>
       </c>
       <c r="M36" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="N36" t="s">
         <v>472</v>
@@ -3926,7 +3926,7 @@
         <v>236</v>
       </c>
       <c r="R36" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S36">
         <v>1.145073530222582</v>
@@ -3955,13 +3955,13 @@
         <v>289</v>
       </c>
       <c r="H37" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="I37" t="s">
         <v>369</v>
       </c>
       <c r="J37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K37" t="s">
         <v>369</v>
@@ -3976,7 +3976,7 @@
         <v>474</v>
       </c>
       <c r="O37" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="P37" t="s">
         <v>472</v>
@@ -4005,16 +4005,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
         <v>238</v>
       </c>
       <c r="G38" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="H38" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="I38" t="s">
         <v>370</v>
@@ -4023,7 +4023,7 @@
         <v>343</v>
       </c>
       <c r="K38" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="L38" t="s">
         <v>475</v>
@@ -4035,7 +4035,7 @@
         <v>473</v>
       </c>
       <c r="O38" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="P38" t="s">
         <v>472</v>
@@ -4044,7 +4044,7 @@
         <v>238</v>
       </c>
       <c r="R38" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="S38">
         <v>1.323743811417749</v>
@@ -4132,13 +4132,13 @@
         <v>229</v>
       </c>
       <c r="H40" t="s">
-        <v>323</v>
+        <v>225</v>
       </c>
       <c r="I40" t="s">
         <v>372</v>
       </c>
       <c r="J40" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K40" t="s">
         <v>229</v>
@@ -4147,7 +4147,7 @@
         <v>475</v>
       </c>
       <c r="M40" t="s">
-        <v>323</v>
+        <v>225</v>
       </c>
       <c r="N40" t="s">
         <v>472</v>
@@ -4306,10 +4306,10 @@
         <v>242</v>
       </c>
       <c r="G43" t="s">
-        <v>318</v>
+        <v>249</v>
       </c>
       <c r="H43" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="I43" t="s">
         <v>374</v>
@@ -4318,7 +4318,7 @@
         <v>340</v>
       </c>
       <c r="K43" t="s">
-        <v>318</v>
+        <v>249</v>
       </c>
       <c r="L43" t="s">
         <v>475</v>
@@ -4330,7 +4330,7 @@
         <v>474</v>
       </c>
       <c r="O43" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="P43" t="s">
         <v>472</v>
@@ -4359,25 +4359,25 @@
         <v>0</v>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="s">
         <v>243</v>
       </c>
       <c r="G44" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="H44" t="s">
-        <v>227</v>
+        <v>318</v>
       </c>
       <c r="I44" t="s">
         <v>375</v>
       </c>
       <c r="J44" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K44" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="L44" t="s">
         <v>475</v>
@@ -4389,7 +4389,7 @@
         <v>473</v>
       </c>
       <c r="O44" t="s">
-        <v>227</v>
+        <v>318</v>
       </c>
       <c r="P44" t="s">
         <v>472</v>
@@ -4398,7 +4398,7 @@
         <v>243</v>
       </c>
       <c r="R44" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="S44">
         <v>1.011159261895078</v>
@@ -4427,13 +4427,13 @@
         <v>228</v>
       </c>
       <c r="H45" t="s">
-        <v>222</v>
+        <v>336</v>
       </c>
       <c r="I45" t="s">
         <v>376</v>
       </c>
       <c r="J45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K45" t="s">
         <v>244</v>
@@ -4454,7 +4454,7 @@
         <v>473</v>
       </c>
       <c r="Q45" t="s">
-        <v>222</v>
+        <v>336</v>
       </c>
       <c r="R45" t="s">
         <v>472</v>
@@ -4604,16 +4604,16 @@
         <v>327</v>
       </c>
       <c r="H48" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="I48" t="s">
         <v>378</v>
       </c>
       <c r="J48" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K48" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="L48" t="s">
         <v>472</v>
@@ -4654,22 +4654,22 @@
         <v>0</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>247</v>
       </c>
       <c r="G49" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="H49" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="I49" t="s">
         <v>379</v>
       </c>
       <c r="J49" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K49" t="s">
         <v>379</v>
@@ -4681,16 +4681,16 @@
         <v>247</v>
       </c>
       <c r="N49" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O49" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="P49" t="s">
         <v>472</v>
       </c>
       <c r="Q49" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="R49" t="s">
         <v>475</v>
@@ -4722,13 +4722,13 @@
         <v>241</v>
       </c>
       <c r="H50" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="I50" t="s">
         <v>380</v>
       </c>
       <c r="J50" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K50" t="s">
         <v>248</v>
@@ -4737,7 +4737,7 @@
         <v>474</v>
       </c>
       <c r="M50" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="N50" t="s">
         <v>472</v>
@@ -4772,22 +4772,22 @@
         <v>0</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>249</v>
       </c>
       <c r="G51" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="H51" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="I51" t="s">
         <v>381</v>
       </c>
       <c r="J51" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K51" t="s">
         <v>381</v>
@@ -4796,7 +4796,7 @@
         <v>473</v>
       </c>
       <c r="M51" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="N51" t="s">
         <v>472</v>
@@ -4805,10 +4805,10 @@
         <v>249</v>
       </c>
       <c r="P51" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q51" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="R51" t="s">
         <v>475</v>
@@ -4890,16 +4890,16 @@
         <v>0</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>250</v>
       </c>
       <c r="G53" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="H53" t="s">
-        <v>279</v>
+        <v>215</v>
       </c>
       <c r="I53" t="s">
         <v>382</v>
@@ -4911,16 +4911,16 @@
         <v>250</v>
       </c>
       <c r="L53" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M53" t="s">
-        <v>279</v>
+        <v>215</v>
       </c>
       <c r="N53" t="s">
         <v>472</v>
       </c>
       <c r="O53" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="P53" t="s">
         <v>475</v>
@@ -4958,7 +4958,7 @@
         <v>261</v>
       </c>
       <c r="H54" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="I54" t="s">
         <v>383</v>
@@ -4985,7 +4985,7 @@
         <v>474</v>
       </c>
       <c r="Q54" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="R54" t="s">
         <v>472</v>
@@ -5067,22 +5067,22 @@
         <v>0</v>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="s">
         <v>253</v>
       </c>
       <c r="G56" t="s">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="H56" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="I56" t="s">
         <v>385</v>
       </c>
       <c r="J56" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K56" t="s">
         <v>385</v>
@@ -5094,16 +5094,16 @@
         <v>253</v>
       </c>
       <c r="N56" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O56" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="P56" t="s">
         <v>472</v>
       </c>
       <c r="Q56" t="s">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="R56" t="s">
         <v>475</v>
@@ -5185,22 +5185,22 @@
         <v>0</v>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="s">
         <v>254</v>
       </c>
       <c r="G58" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="H58" t="s">
-        <v>212</v>
+        <v>320</v>
       </c>
       <c r="I58" t="s">
         <v>386</v>
       </c>
       <c r="J58" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K58" t="s">
         <v>386</v>
@@ -5212,16 +5212,16 @@
         <v>254</v>
       </c>
       <c r="N58" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O58" t="s">
-        <v>212</v>
+        <v>320</v>
       </c>
       <c r="P58" t="s">
         <v>472</v>
       </c>
       <c r="Q58" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="R58" t="s">
         <v>475</v>
@@ -5303,16 +5303,16 @@
         <v>0</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="s">
         <v>255</v>
       </c>
       <c r="G60" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="H60" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I60" t="s">
         <v>387</v>
@@ -5321,13 +5321,13 @@
         <v>341</v>
       </c>
       <c r="K60" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L60" t="s">
         <v>472</v>
       </c>
       <c r="M60" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="N60" t="s">
         <v>475</v>
@@ -5336,7 +5336,7 @@
         <v>255</v>
       </c>
       <c r="P60" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="Q60" t="s">
         <v>387</v>
@@ -5371,13 +5371,13 @@
         <v>231</v>
       </c>
       <c r="H61" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="I61" t="s">
         <v>388</v>
       </c>
       <c r="J61" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K61" t="s">
         <v>231</v>
@@ -5386,7 +5386,7 @@
         <v>475</v>
       </c>
       <c r="M61" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="N61" t="s">
         <v>472</v>
@@ -5430,16 +5430,16 @@
         <v>284</v>
       </c>
       <c r="H62" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="I62" t="s">
         <v>389</v>
       </c>
       <c r="J62" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K62" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L62" t="s">
         <v>472</v>
@@ -5489,13 +5489,13 @@
         <v>321</v>
       </c>
       <c r="H63" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="I63" t="s">
         <v>390</v>
       </c>
       <c r="J63" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K63" t="s">
         <v>258</v>
@@ -5504,7 +5504,7 @@
         <v>474</v>
       </c>
       <c r="M63" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="N63" t="s">
         <v>472</v>
@@ -5545,19 +5545,19 @@
         <v>259</v>
       </c>
       <c r="G64" t="s">
-        <v>312</v>
+        <v>219</v>
       </c>
       <c r="H64" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="I64" t="s">
         <v>391</v>
       </c>
       <c r="J64" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K64" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="L64" t="s">
         <v>472</v>
@@ -5569,7 +5569,7 @@
         <v>473</v>
       </c>
       <c r="O64" t="s">
-        <v>312</v>
+        <v>219</v>
       </c>
       <c r="P64" t="s">
         <v>475</v>
@@ -5598,16 +5598,16 @@
         <v>0</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>260</v>
       </c>
       <c r="G65" t="s">
-        <v>224</v>
+        <v>305</v>
       </c>
       <c r="H65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I65" t="s">
         <v>392</v>
@@ -5619,10 +5619,10 @@
         <v>260</v>
       </c>
       <c r="L65" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N65" t="s">
         <v>472</v>
@@ -5634,7 +5634,7 @@
         <v>473</v>
       </c>
       <c r="Q65" t="s">
-        <v>224</v>
+        <v>305</v>
       </c>
       <c r="R65" t="s">
         <v>475</v>
@@ -5843,13 +5843,13 @@
         <v>316</v>
       </c>
       <c r="H69" t="s">
-        <v>225</v>
+        <v>297</v>
       </c>
       <c r="I69" t="s">
         <v>393</v>
       </c>
       <c r="J69" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K69" t="s">
         <v>261</v>
@@ -5864,7 +5864,7 @@
         <v>473</v>
       </c>
       <c r="O69" t="s">
-        <v>225</v>
+        <v>297</v>
       </c>
       <c r="P69" t="s">
         <v>472</v>
@@ -5902,13 +5902,13 @@
         <v>299</v>
       </c>
       <c r="H70" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="I70" t="s">
         <v>394</v>
       </c>
       <c r="J70" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K70" t="s">
         <v>394</v>
@@ -5929,7 +5929,7 @@
         <v>474</v>
       </c>
       <c r="Q70" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="R70" t="s">
         <v>472</v>
@@ -5958,10 +5958,10 @@
         <v>263</v>
       </c>
       <c r="G71" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="H71" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="I71" t="s">
         <v>395</v>
@@ -5976,13 +5976,13 @@
         <v>474</v>
       </c>
       <c r="M71" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="N71" t="s">
         <v>472</v>
       </c>
       <c r="O71" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="P71" t="s">
         <v>475</v>
@@ -6011,22 +6011,22 @@
         <v>0</v>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="s">
         <v>264</v>
       </c>
       <c r="G72" t="s">
-        <v>335</v>
+        <v>224</v>
       </c>
       <c r="H72" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="I72" t="s">
         <v>396</v>
       </c>
       <c r="J72" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K72" t="s">
         <v>396</v>
@@ -6038,16 +6038,16 @@
         <v>264</v>
       </c>
       <c r="N72" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O72" t="s">
-        <v>335</v>
+        <v>224</v>
       </c>
       <c r="P72" t="s">
         <v>475</v>
       </c>
       <c r="Q72" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="R72" t="s">
         <v>472</v>
@@ -6079,13 +6079,13 @@
         <v>279</v>
       </c>
       <c r="H73" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c r="I73" t="s">
         <v>397</v>
       </c>
       <c r="J73" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K73" t="s">
         <v>279</v>
@@ -6094,7 +6094,7 @@
         <v>475</v>
       </c>
       <c r="M73" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c r="N73" t="s">
         <v>472</v>
@@ -6138,13 +6138,13 @@
         <v>276</v>
       </c>
       <c r="H74" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="I74" t="s">
         <v>398</v>
       </c>
       <c r="J74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K74" t="s">
         <v>276</v>
@@ -6153,7 +6153,7 @@
         <v>475</v>
       </c>
       <c r="M74" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="N74" t="s">
         <v>472</v>
@@ -6256,7 +6256,7 @@
         <v>266</v>
       </c>
       <c r="H76" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="I76" t="s">
         <v>399</v>
@@ -6271,7 +6271,7 @@
         <v>474</v>
       </c>
       <c r="M76" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="N76" t="s">
         <v>472</v>
@@ -6306,22 +6306,22 @@
         <v>0</v>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="s">
         <v>268</v>
       </c>
       <c r="G77" t="s">
-        <v>333</v>
+        <v>247</v>
       </c>
       <c r="H77" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I77" t="s">
         <v>400</v>
       </c>
       <c r="J77" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K77" t="s">
         <v>400</v>
@@ -6330,13 +6330,13 @@
         <v>473</v>
       </c>
       <c r="M77" t="s">
-        <v>333</v>
+        <v>247</v>
       </c>
       <c r="N77" t="s">
         <v>475</v>
       </c>
       <c r="O77" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P77" t="s">
         <v>472</v>
@@ -6345,7 +6345,7 @@
         <v>268</v>
       </c>
       <c r="R77" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="S77">
         <v>1.080503952536192</v>
@@ -6489,10 +6489,10 @@
         <v>269</v>
       </c>
       <c r="G80" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="H80" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="I80" t="s">
         <v>401</v>
@@ -6507,13 +6507,13 @@
         <v>473</v>
       </c>
       <c r="M80" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="N80" t="s">
         <v>475</v>
       </c>
       <c r="O80" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="P80" t="s">
         <v>472</v>
@@ -6542,16 +6542,16 @@
         <v>0</v>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>270</v>
       </c>
       <c r="G81" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H81" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="I81" t="s">
         <v>402</v>
@@ -6560,7 +6560,7 @@
         <v>340</v>
       </c>
       <c r="K81" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="L81" t="s">
         <v>472</v>
@@ -6572,7 +6572,7 @@
         <v>473</v>
       </c>
       <c r="O81" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P81" t="s">
         <v>475</v>
@@ -6581,7 +6581,7 @@
         <v>270</v>
       </c>
       <c r="R81" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S81">
         <v>1.053608001125836</v>
@@ -6610,13 +6610,13 @@
         <v>294</v>
       </c>
       <c r="H82" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="I82" t="s">
         <v>403</v>
       </c>
       <c r="J82" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K82" t="s">
         <v>403</v>
@@ -6631,7 +6631,7 @@
         <v>474</v>
       </c>
       <c r="O82" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="P82" t="s">
         <v>472</v>
@@ -6669,16 +6669,16 @@
         <v>258</v>
       </c>
       <c r="H83" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="I83" t="s">
         <v>404</v>
       </c>
       <c r="J83" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K83" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="L83" t="s">
         <v>472</v>
@@ -6719,16 +6719,16 @@
         <v>0</v>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>273</v>
       </c>
       <c r="G84" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="H84" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="I84" t="s">
         <v>405</v>
@@ -6740,16 +6740,16 @@
         <v>273</v>
       </c>
       <c r="L84" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M84" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="N84" t="s">
         <v>475</v>
       </c>
       <c r="O84" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="P84" t="s">
         <v>472</v>
@@ -6837,37 +6837,37 @@
         <v>0</v>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
         <v>274</v>
       </c>
       <c r="G86" t="s">
-        <v>303</v>
+        <v>230</v>
       </c>
       <c r="H86" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="I86" t="s">
         <v>406</v>
       </c>
       <c r="J86" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K86" t="s">
         <v>274</v>
       </c>
       <c r="L86" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M86" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="N86" t="s">
         <v>472</v>
       </c>
       <c r="O86" t="s">
-        <v>303</v>
+        <v>230</v>
       </c>
       <c r="P86" t="s">
         <v>475</v>
@@ -6896,16 +6896,16 @@
         <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="s">
         <v>275</v>
       </c>
       <c r="G87" t="s">
-        <v>221</v>
+        <v>318</v>
       </c>
       <c r="H87" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="I87" t="s">
         <v>407</v>
@@ -6920,13 +6920,13 @@
         <v>473</v>
       </c>
       <c r="M87" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="N87" t="s">
         <v>472</v>
       </c>
       <c r="O87" t="s">
-        <v>221</v>
+        <v>318</v>
       </c>
       <c r="P87" t="s">
         <v>475</v>
@@ -6935,7 +6935,7 @@
         <v>275</v>
       </c>
       <c r="R87" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="S87">
         <v>1.070444878025286</v>
@@ -6964,7 +6964,7 @@
         <v>257</v>
       </c>
       <c r="H88" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="I88" t="s">
         <v>408</v>
@@ -6985,7 +6985,7 @@
         <v>474</v>
       </c>
       <c r="O88" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="P88" t="s">
         <v>472</v>
@@ -7014,31 +7014,31 @@
         <v>0</v>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="s">
         <v>277</v>
       </c>
       <c r="G89" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="H89" t="s">
-        <v>244</v>
+        <v>323</v>
       </c>
       <c r="I89" t="s">
         <v>409</v>
       </c>
       <c r="J89" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K89" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="L89" t="s">
         <v>475</v>
       </c>
       <c r="M89" t="s">
-        <v>244</v>
+        <v>323</v>
       </c>
       <c r="N89" t="s">
         <v>472</v>
@@ -7047,7 +7047,7 @@
         <v>277</v>
       </c>
       <c r="P89" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="Q89" t="s">
         <v>409</v>
@@ -7197,16 +7197,16 @@
         <v>278</v>
       </c>
       <c r="G92" t="s">
-        <v>336</v>
+        <v>221</v>
       </c>
       <c r="H92" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="I92" t="s">
         <v>410</v>
       </c>
       <c r="J92" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K92" t="s">
         <v>278</v>
@@ -7215,7 +7215,7 @@
         <v>476</v>
       </c>
       <c r="M92" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="N92" t="s">
         <v>472</v>
@@ -7227,7 +7227,7 @@
         <v>473</v>
       </c>
       <c r="Q92" t="s">
-        <v>336</v>
+        <v>221</v>
       </c>
       <c r="R92" t="s">
         <v>475</v>
@@ -7309,25 +7309,25 @@
         <v>0</v>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="s">
         <v>280</v>
       </c>
       <c r="G94" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H94" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="I94" t="s">
         <v>412</v>
       </c>
       <c r="J94" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K94" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L94" t="s">
         <v>475</v>
@@ -7336,7 +7336,7 @@
         <v>280</v>
       </c>
       <c r="N94" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O94" t="s">
         <v>412</v>
@@ -7345,7 +7345,7 @@
         <v>473</v>
       </c>
       <c r="Q94" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="R94" t="s">
         <v>472</v>
@@ -7377,7 +7377,7 @@
         <v>302</v>
       </c>
       <c r="H95" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="I95" t="s">
         <v>413</v>
@@ -7398,7 +7398,7 @@
         <v>475</v>
       </c>
       <c r="O95" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="P95" t="s">
         <v>472</v>
@@ -7554,13 +7554,13 @@
         <v>239</v>
       </c>
       <c r="H98" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="I98" t="s">
         <v>414</v>
       </c>
       <c r="J98" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K98" t="s">
         <v>414</v>
@@ -7575,7 +7575,7 @@
         <v>475</v>
       </c>
       <c r="O98" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="P98" t="s">
         <v>472</v>
@@ -7604,37 +7604,37 @@
         <v>0</v>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="s">
         <v>283</v>
       </c>
       <c r="G99" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="H99" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I99" t="s">
         <v>415</v>
       </c>
       <c r="J99" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K99" t="s">
         <v>283</v>
       </c>
       <c r="L99" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M99" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="N99" t="s">
         <v>475</v>
       </c>
       <c r="O99" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P99" t="s">
         <v>472</v>
@@ -7731,13 +7731,13 @@
         <v>313</v>
       </c>
       <c r="H101" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="I101" t="s">
         <v>416</v>
       </c>
       <c r="J101" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K101" t="s">
         <v>416</v>
@@ -7758,7 +7758,7 @@
         <v>475</v>
       </c>
       <c r="Q101" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="R101" t="s">
         <v>472</v>
@@ -7790,13 +7790,13 @@
         <v>317</v>
       </c>
       <c r="H102" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="I102" t="s">
         <v>417</v>
       </c>
       <c r="J102" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K102" t="s">
         <v>317</v>
@@ -7817,7 +7817,7 @@
         <v>474</v>
       </c>
       <c r="Q102" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="R102" t="s">
         <v>472</v>
@@ -7840,25 +7840,25 @@
         <v>0</v>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="s">
         <v>286</v>
       </c>
       <c r="G103" t="s">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="H103" t="s">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="I103" t="s">
         <v>418</v>
       </c>
       <c r="J103" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K103" t="s">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="L103" t="s">
         <v>472</v>
@@ -7867,10 +7867,10 @@
         <v>286</v>
       </c>
       <c r="N103" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O103" t="s">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="P103" t="s">
         <v>475</v>
@@ -7958,16 +7958,16 @@
         <v>0</v>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="s">
         <v>288</v>
       </c>
       <c r="G105" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="H105" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="I105" t="s">
         <v>420</v>
@@ -7976,13 +7976,13 @@
         <v>340</v>
       </c>
       <c r="K105" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="L105" t="s">
         <v>475</v>
       </c>
       <c r="M105" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="N105" t="s">
         <v>472</v>
@@ -7991,7 +7991,7 @@
         <v>288</v>
       </c>
       <c r="P105" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q105" t="s">
         <v>420</v>
@@ -8026,13 +8026,13 @@
         <v>212</v>
       </c>
       <c r="H106" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="I106" t="s">
         <v>421</v>
       </c>
       <c r="J106" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K106" t="s">
         <v>421</v>
@@ -8047,7 +8047,7 @@
         <v>474</v>
       </c>
       <c r="O106" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="P106" t="s">
         <v>472</v>
@@ -8203,7 +8203,7 @@
         <v>275</v>
       </c>
       <c r="H109" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="I109" t="s">
         <v>422</v>
@@ -8230,7 +8230,7 @@
         <v>475</v>
       </c>
       <c r="Q109" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="R109" t="s">
         <v>472</v>
@@ -8312,25 +8312,25 @@
         <v>0</v>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="s">
         <v>291</v>
       </c>
       <c r="G111" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
       <c r="H111" t="s">
-        <v>278</v>
+        <v>331</v>
       </c>
       <c r="I111" t="s">
         <v>423</v>
       </c>
       <c r="J111" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K111" t="s">
-        <v>278</v>
+        <v>331</v>
       </c>
       <c r="L111" t="s">
         <v>472</v>
@@ -8342,7 +8342,7 @@
         <v>473</v>
       </c>
       <c r="O111" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
       <c r="P111" t="s">
         <v>475</v>
@@ -8351,7 +8351,7 @@
         <v>291</v>
       </c>
       <c r="R111" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="S111">
         <v>1.118577695525584</v>
@@ -8371,31 +8371,31 @@
         <v>0</v>
       </c>
       <c r="E112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="s">
         <v>292</v>
       </c>
       <c r="G112" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H112" t="s">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="I112" t="s">
         <v>424</v>
       </c>
       <c r="J112" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K112" t="s">
         <v>292</v>
       </c>
       <c r="L112" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M112" t="s">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="N112" t="s">
         <v>472</v>
@@ -8407,7 +8407,7 @@
         <v>473</v>
       </c>
       <c r="Q112" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="R112" t="s">
         <v>475</v>
@@ -8548,31 +8548,31 @@
         <v>0</v>
       </c>
       <c r="E115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="s">
         <v>293</v>
       </c>
       <c r="G115" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H115" t="s">
-        <v>267</v>
+        <v>326</v>
       </c>
       <c r="I115" t="s">
         <v>425</v>
       </c>
       <c r="J115" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K115" t="s">
-        <v>267</v>
+        <v>326</v>
       </c>
       <c r="L115" t="s">
         <v>472</v>
       </c>
       <c r="M115" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N115" t="s">
         <v>475</v>
@@ -8587,7 +8587,7 @@
         <v>293</v>
       </c>
       <c r="R115" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="S115">
         <v>1.082831592752383</v>
@@ -8675,13 +8675,13 @@
         <v>240</v>
       </c>
       <c r="H117" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I117" t="s">
         <v>426</v>
       </c>
       <c r="J117" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K117" t="s">
         <v>426</v>
@@ -8696,7 +8696,7 @@
         <v>474</v>
       </c>
       <c r="O117" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="P117" t="s">
         <v>472</v>
@@ -8843,37 +8843,37 @@
         <v>0</v>
       </c>
       <c r="E120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="s">
         <v>295</v>
       </c>
       <c r="G120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H120" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="I120" t="s">
         <v>427</v>
       </c>
       <c r="J120" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K120" t="s">
         <v>295</v>
       </c>
       <c r="L120" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N120" t="s">
         <v>475</v>
       </c>
       <c r="O120" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="P120" t="s">
         <v>472</v>
@@ -8911,13 +8911,13 @@
         <v>311</v>
       </c>
       <c r="H121" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I121" t="s">
         <v>428</v>
       </c>
       <c r="J121" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K121" t="s">
         <v>296</v>
@@ -8938,7 +8938,7 @@
         <v>475</v>
       </c>
       <c r="Q121" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="R121" t="s">
         <v>472</v>
@@ -9138,25 +9138,25 @@
         <v>0</v>
       </c>
       <c r="E125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="s">
         <v>297</v>
       </c>
       <c r="G125" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H125" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="I125" t="s">
         <v>429</v>
       </c>
       <c r="J125" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K125" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="L125" t="s">
         <v>472</v>
@@ -9165,10 +9165,10 @@
         <v>297</v>
       </c>
       <c r="N125" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O125" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P125" t="s">
         <v>475</v>
@@ -9324,13 +9324,13 @@
         <v>325</v>
       </c>
       <c r="H128" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="I128" t="s">
         <v>430</v>
       </c>
       <c r="J128" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K128" t="s">
         <v>325</v>
@@ -9351,7 +9351,7 @@
         <v>473</v>
       </c>
       <c r="Q128" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="R128" t="s">
         <v>472</v>
@@ -9383,13 +9383,13 @@
         <v>256</v>
       </c>
       <c r="H129" t="s">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="I129" t="s">
         <v>431</v>
       </c>
       <c r="J129" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K129" t="s">
         <v>256</v>
@@ -9410,7 +9410,7 @@
         <v>473</v>
       </c>
       <c r="Q129" t="s">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="R129" t="s">
         <v>472</v>
@@ -9433,13 +9433,13 @@
         <v>0</v>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="s">
         <v>300</v>
       </c>
       <c r="G130" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="H130" t="s">
         <v>307</v>
@@ -9460,7 +9460,7 @@
         <v>300</v>
       </c>
       <c r="N130" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O130" t="s">
         <v>307</v>
@@ -9469,7 +9469,7 @@
         <v>472</v>
       </c>
       <c r="Q130" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="R130" t="s">
         <v>475</v>
@@ -9551,25 +9551,25 @@
         <v>0</v>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="s">
         <v>301</v>
       </c>
       <c r="G132" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="H132" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="I132" t="s">
         <v>433</v>
       </c>
       <c r="J132" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K132" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="L132" t="s">
         <v>472</v>
@@ -9581,7 +9581,7 @@
         <v>473</v>
       </c>
       <c r="O132" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="P132" t="s">
         <v>475</v>
@@ -9590,7 +9590,7 @@
         <v>301</v>
       </c>
       <c r="R132" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="S132">
         <v>1.016034106086119</v>
@@ -9678,16 +9678,16 @@
         <v>211</v>
       </c>
       <c r="H134" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="I134" t="s">
         <v>434</v>
       </c>
       <c r="J134" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K134" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="L134" t="s">
         <v>472</v>
@@ -9787,28 +9787,28 @@
         <v>0</v>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="s">
         <v>303</v>
       </c>
       <c r="G136" t="s">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="H136" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="I136" t="s">
         <v>435</v>
       </c>
       <c r="J136" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K136" t="s">
         <v>303</v>
       </c>
       <c r="L136" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M136" t="s">
         <v>435</v>
@@ -9817,13 +9817,13 @@
         <v>473</v>
       </c>
       <c r="O136" t="s">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="P136" t="s">
         <v>475</v>
       </c>
       <c r="Q136" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="R136" t="s">
         <v>472</v>
@@ -9846,16 +9846,16 @@
         <v>0</v>
       </c>
       <c r="E137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" t="s">
         <v>304</v>
       </c>
       <c r="G137" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="H137" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="I137" t="s">
         <v>436</v>
@@ -9870,13 +9870,13 @@
         <v>473</v>
       </c>
       <c r="M137" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="N137" t="s">
         <v>472</v>
       </c>
       <c r="O137" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="P137" t="s">
         <v>475</v>
@@ -9885,7 +9885,7 @@
         <v>304</v>
       </c>
       <c r="R137" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="S137">
         <v>1.013820989571717</v>
@@ -9964,25 +9964,25 @@
         <v>0</v>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="s">
         <v>305</v>
       </c>
       <c r="G139" t="s">
-        <v>218</v>
+        <v>301</v>
       </c>
       <c r="H139" t="s">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="I139" t="s">
         <v>437</v>
       </c>
       <c r="J139" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K139" t="s">
-        <v>218</v>
+        <v>301</v>
       </c>
       <c r="L139" t="s">
         <v>475</v>
@@ -9991,7 +9991,7 @@
         <v>305</v>
       </c>
       <c r="N139" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O139" t="s">
         <v>437</v>
@@ -10000,7 +10000,7 @@
         <v>473</v>
       </c>
       <c r="Q139" t="s">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="R139" t="s">
         <v>472</v>
@@ -10091,13 +10091,13 @@
         <v>315</v>
       </c>
       <c r="H141" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I141" t="s">
         <v>438</v>
       </c>
       <c r="J141" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K141" t="s">
         <v>315</v>
@@ -10118,7 +10118,7 @@
         <v>474</v>
       </c>
       <c r="Q141" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="R141" t="s">
         <v>472</v>
@@ -10259,25 +10259,25 @@
         <v>0</v>
       </c>
       <c r="E144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="s">
         <v>307</v>
       </c>
       <c r="G144" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="H144" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="I144" t="s">
         <v>439</v>
       </c>
       <c r="J144" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K144" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="L144" t="s">
         <v>472</v>
@@ -10286,10 +10286,10 @@
         <v>307</v>
       </c>
       <c r="N144" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O144" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="P144" t="s">
         <v>475</v>
@@ -10318,22 +10318,22 @@
         <v>0</v>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="s">
         <v>308</v>
       </c>
       <c r="G145" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="H145" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="I145" t="s">
         <v>440</v>
       </c>
       <c r="J145" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K145" t="s">
         <v>440</v>
@@ -10342,7 +10342,7 @@
         <v>473</v>
       </c>
       <c r="M145" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="N145" t="s">
         <v>472</v>
@@ -10351,10 +10351,10 @@
         <v>308</v>
       </c>
       <c r="P145" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q145" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="R145" t="s">
         <v>475</v>
@@ -10445,13 +10445,13 @@
         <v>337</v>
       </c>
       <c r="H147" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="I147" t="s">
         <v>441</v>
       </c>
       <c r="J147" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K147" t="s">
         <v>309</v>
@@ -10466,7 +10466,7 @@
         <v>473</v>
       </c>
       <c r="O147" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="P147" t="s">
         <v>472</v>
@@ -10504,16 +10504,16 @@
         <v>232</v>
       </c>
       <c r="H148" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="I148" t="s">
         <v>442</v>
       </c>
       <c r="J148" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K148" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="L148" t="s">
         <v>472</v>
@@ -10622,7 +10622,7 @@
         <v>246</v>
       </c>
       <c r="H150" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="I150" t="s">
         <v>443</v>
@@ -10637,7 +10637,7 @@
         <v>474</v>
       </c>
       <c r="M150" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="N150" t="s">
         <v>472</v>
@@ -10672,25 +10672,25 @@
         <v>0</v>
       </c>
       <c r="E151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" t="s">
         <v>312</v>
       </c>
       <c r="G151" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="H151" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="I151" t="s">
         <v>444</v>
       </c>
       <c r="J151" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K151" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="L151" t="s">
         <v>472</v>
@@ -10699,7 +10699,7 @@
         <v>312</v>
       </c>
       <c r="N151" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O151" t="s">
         <v>444</v>
@@ -10708,7 +10708,7 @@
         <v>473</v>
       </c>
       <c r="Q151" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="R151" t="s">
         <v>475</v>
@@ -10799,7 +10799,7 @@
         <v>329</v>
       </c>
       <c r="H153" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="I153" t="s">
         <v>445</v>
@@ -10814,7 +10814,7 @@
         <v>474</v>
       </c>
       <c r="M153" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="N153" t="s">
         <v>472</v>
@@ -10858,13 +10858,13 @@
         <v>215</v>
       </c>
       <c r="H154" t="s">
-        <v>324</v>
+        <v>220</v>
       </c>
       <c r="I154" t="s">
         <v>446</v>
       </c>
       <c r="J154" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K154" t="s">
         <v>446</v>
@@ -10885,7 +10885,7 @@
         <v>475</v>
       </c>
       <c r="Q154" t="s">
-        <v>324</v>
+        <v>220</v>
       </c>
       <c r="R154" t="s">
         <v>472</v>
@@ -10976,13 +10976,13 @@
         <v>306</v>
       </c>
       <c r="H156" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="I156" t="s">
         <v>447</v>
       </c>
       <c r="J156" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K156" t="s">
         <v>315</v>
@@ -11003,7 +11003,7 @@
         <v>473</v>
       </c>
       <c r="Q156" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="R156" t="s">
         <v>472</v>
@@ -11035,7 +11035,7 @@
         <v>217</v>
       </c>
       <c r="H157" t="s">
-        <v>331</v>
+        <v>244</v>
       </c>
       <c r="I157" t="s">
         <v>448</v>
@@ -11050,7 +11050,7 @@
         <v>475</v>
       </c>
       <c r="M157" t="s">
-        <v>331</v>
+        <v>244</v>
       </c>
       <c r="N157" t="s">
         <v>472</v>
@@ -11153,13 +11153,13 @@
         <v>285</v>
       </c>
       <c r="H159" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I159" t="s">
         <v>449</v>
       </c>
       <c r="J159" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K159" t="s">
         <v>317</v>
@@ -11174,7 +11174,7 @@
         <v>475</v>
       </c>
       <c r="O159" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="P159" t="s">
         <v>472</v>
@@ -11203,25 +11203,25 @@
         <v>0</v>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="s">
         <v>318</v>
       </c>
       <c r="G160" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="H160" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="I160" t="s">
         <v>450</v>
       </c>
       <c r="J160" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K160" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="L160" t="s">
         <v>475</v>
@@ -11230,10 +11230,10 @@
         <v>318</v>
       </c>
       <c r="N160" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O160" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="P160" t="s">
         <v>472</v>
@@ -11262,31 +11262,31 @@
         <v>0</v>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="s">
         <v>319</v>
       </c>
       <c r="G161" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="H161" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="I161" t="s">
         <v>451</v>
       </c>
       <c r="J161" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K161" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="L161" t="s">
         <v>472</v>
       </c>
       <c r="M161" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="N161" t="s">
         <v>475</v>
@@ -11295,7 +11295,7 @@
         <v>319</v>
       </c>
       <c r="P161" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q161" t="s">
         <v>451</v>
@@ -11498,16 +11498,16 @@
         <v>0</v>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="s">
         <v>320</v>
       </c>
       <c r="G165" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="H165" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="I165" t="s">
         <v>452</v>
@@ -11525,16 +11525,16 @@
         <v>320</v>
       </c>
       <c r="N165" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O165" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="P165" t="s">
         <v>472</v>
       </c>
       <c r="Q165" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="R165" t="s">
         <v>475</v>
@@ -11684,13 +11684,13 @@
         <v>214</v>
       </c>
       <c r="H168" t="s">
-        <v>262</v>
+        <v>335</v>
       </c>
       <c r="I168" t="s">
         <v>453</v>
       </c>
       <c r="J168" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K168" t="s">
         <v>321</v>
@@ -11699,7 +11699,7 @@
         <v>474</v>
       </c>
       <c r="M168" t="s">
-        <v>262</v>
+        <v>335</v>
       </c>
       <c r="N168" t="s">
         <v>472</v>
@@ -11734,16 +11734,16 @@
         <v>0</v>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="s">
         <v>322</v>
       </c>
       <c r="G169" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="H169" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="I169" t="s">
         <v>454</v>
@@ -11758,13 +11758,13 @@
         <v>473</v>
       </c>
       <c r="M169" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="N169" t="s">
         <v>475</v>
       </c>
       <c r="O169" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="P169" t="s">
         <v>472</v>
@@ -11773,7 +11773,7 @@
         <v>322</v>
       </c>
       <c r="R169" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S169">
         <v>1.243073535619158</v>
@@ -11858,16 +11858,16 @@
         <v>323</v>
       </c>
       <c r="G171" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="H171" t="s">
-        <v>214</v>
+        <v>338</v>
       </c>
       <c r="I171" t="s">
         <v>455</v>
       </c>
       <c r="J171" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K171" t="s">
         <v>455</v>
@@ -11876,13 +11876,13 @@
         <v>473</v>
       </c>
       <c r="M171" t="s">
-        <v>214</v>
+        <v>338</v>
       </c>
       <c r="N171" t="s">
         <v>472</v>
       </c>
       <c r="O171" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="P171" t="s">
         <v>475</v>
@@ -11911,22 +11911,22 @@
         <v>0</v>
       </c>
       <c r="E172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" t="s">
         <v>324</v>
       </c>
       <c r="G172" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="H172" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="I172" t="s">
         <v>456</v>
       </c>
       <c r="J172" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K172" t="s">
         <v>456</v>
@@ -11935,7 +11935,7 @@
         <v>473</v>
       </c>
       <c r="M172" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="N172" t="s">
         <v>472</v>
@@ -11944,10 +11944,10 @@
         <v>324</v>
       </c>
       <c r="P172" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q172" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="R172" t="s">
         <v>475</v>
@@ -11979,13 +11979,13 @@
         <v>267</v>
       </c>
       <c r="H173" t="s">
-        <v>236</v>
+        <v>330</v>
       </c>
       <c r="I173" t="s">
         <v>457</v>
       </c>
       <c r="J173" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K173" t="s">
         <v>457</v>
@@ -11994,7 +11994,7 @@
         <v>473</v>
       </c>
       <c r="M173" t="s">
-        <v>236</v>
+        <v>330</v>
       </c>
       <c r="N173" t="s">
         <v>472</v>
@@ -12088,31 +12088,31 @@
         <v>0</v>
       </c>
       <c r="E175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="s">
         <v>326</v>
       </c>
       <c r="G175" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="H175" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="I175" t="s">
         <v>458</v>
       </c>
       <c r="J175" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K175" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="L175" t="s">
         <v>475</v>
       </c>
       <c r="M175" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="N175" t="s">
         <v>472</v>
@@ -12127,7 +12127,7 @@
         <v>326</v>
       </c>
       <c r="R175" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S175">
         <v>1.119437725646427</v>
@@ -12156,13 +12156,13 @@
         <v>281</v>
       </c>
       <c r="H176" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="I176" t="s">
         <v>459</v>
       </c>
       <c r="J176" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K176" t="s">
         <v>327</v>
@@ -12183,7 +12183,7 @@
         <v>475</v>
       </c>
       <c r="Q176" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="R176" t="s">
         <v>472</v>
@@ -12265,25 +12265,25 @@
         <v>0</v>
       </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="s">
         <v>328</v>
       </c>
       <c r="G178" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="H178" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="I178" t="s">
         <v>460</v>
       </c>
       <c r="J178" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K178" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="L178" t="s">
         <v>472</v>
@@ -12292,7 +12292,7 @@
         <v>328</v>
       </c>
       <c r="N178" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O178" t="s">
         <v>460</v>
@@ -12301,7 +12301,7 @@
         <v>473</v>
       </c>
       <c r="Q178" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="R178" t="s">
         <v>475</v>
@@ -12333,7 +12333,7 @@
         <v>272</v>
       </c>
       <c r="H179" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="I179" t="s">
         <v>461</v>
@@ -12360,7 +12360,7 @@
         <v>475</v>
       </c>
       <c r="Q179" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="R179" t="s">
         <v>472</v>
@@ -12451,13 +12451,13 @@
         <v>248</v>
       </c>
       <c r="H181" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
       <c r="I181" t="s">
         <v>463</v>
       </c>
       <c r="J181" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K181" t="s">
         <v>331</v>
@@ -12472,7 +12472,7 @@
         <v>473</v>
       </c>
       <c r="O181" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
       <c r="P181" t="s">
         <v>472</v>
@@ -12619,16 +12619,16 @@
         <v>0</v>
       </c>
       <c r="E184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" t="s">
         <v>332</v>
       </c>
       <c r="G184" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="H184" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I184" t="s">
         <v>464</v>
@@ -12637,7 +12637,7 @@
         <v>343</v>
       </c>
       <c r="K184" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="L184" t="s">
         <v>475</v>
@@ -12652,10 +12652,10 @@
         <v>332</v>
       </c>
       <c r="P184" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q184" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R184" t="s">
         <v>472</v>
@@ -12684,25 +12684,25 @@
         <v>333</v>
       </c>
       <c r="G185" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="H185" t="s">
-        <v>325</v>
+        <v>241</v>
       </c>
       <c r="I185" t="s">
         <v>465</v>
       </c>
       <c r="J185" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K185" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="L185" t="s">
         <v>475</v>
       </c>
       <c r="M185" t="s">
-        <v>325</v>
+        <v>241</v>
       </c>
       <c r="N185" t="s">
         <v>472</v>
@@ -12737,13 +12737,13 @@
         <v>0</v>
       </c>
       <c r="E186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186" t="s">
         <v>334</v>
       </c>
       <c r="G186" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="H186" t="s">
         <v>216</v>
@@ -12758,10 +12758,10 @@
         <v>334</v>
       </c>
       <c r="L186" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M186" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="N186" t="s">
         <v>475</v>
@@ -12855,16 +12855,16 @@
         <v>0</v>
       </c>
       <c r="E188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="s">
         <v>335</v>
       </c>
       <c r="G188" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="H188" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="I188" t="s">
         <v>467</v>
@@ -12879,13 +12879,13 @@
         <v>473</v>
       </c>
       <c r="M188" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="N188" t="s">
         <v>472</v>
       </c>
       <c r="O188" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="P188" t="s">
         <v>475</v>
@@ -12894,7 +12894,7 @@
         <v>335</v>
       </c>
       <c r="R188" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S188">
         <v>1.003033753569337</v>
@@ -12914,25 +12914,25 @@
         <v>0</v>
       </c>
       <c r="E189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="s">
         <v>336</v>
       </c>
       <c r="G189" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="H189" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="I189" t="s">
         <v>468</v>
       </c>
       <c r="J189" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K189" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="L189" t="s">
         <v>475</v>
@@ -12944,7 +12944,7 @@
         <v>473</v>
       </c>
       <c r="O189" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="P189" t="s">
         <v>472</v>
@@ -12953,7 +12953,7 @@
         <v>336</v>
       </c>
       <c r="R189" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="S189">
         <v>1.023510474767011</v>
@@ -12982,13 +12982,13 @@
         <v>265</v>
       </c>
       <c r="H190" t="s">
-        <v>322</v>
+        <v>264</v>
       </c>
       <c r="I190" t="s">
         <v>469</v>
       </c>
       <c r="J190" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K190" t="s">
         <v>469</v>
@@ -13003,7 +13003,7 @@
         <v>474</v>
       </c>
       <c r="O190" t="s">
-        <v>322</v>
+        <v>264</v>
       </c>
       <c r="P190" t="s">
         <v>472</v>
@@ -13150,22 +13150,22 @@
         <v>0</v>
       </c>
       <c r="E193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" t="s">
         <v>339</v>
       </c>
       <c r="G193" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="H193" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="I193" t="s">
         <v>471</v>
       </c>
       <c r="J193" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K193" t="s">
         <v>471</v>
@@ -13177,16 +13177,16 @@
         <v>339</v>
       </c>
       <c r="N193" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O193" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="P193" t="s">
         <v>475</v>
       </c>
       <c r="Q193" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="R193" t="s">
         <v>472</v>
